--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F4CBA9D-6A49-4047-8458-DD91604461C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733436B-B32D-489D-87FD-213F49882BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="45">
   <si>
     <t>50m Retten</t>
   </si>
@@ -181,6 +181,69 @@
   <si>
     <t xml:space="preserve">200m Hindernis </t>
   </si>
+  <si>
+    <t>Verbesserte visuelle Übersicht der Pflichtzeiten</t>
+  </si>
+  <si>
+    <t>Platzierungsnormen</t>
+  </si>
+  <si>
+    <t>Wettkampf</t>
+  </si>
+  <si>
+    <t>Maximales Alter</t>
+  </si>
+  <si>
+    <t>Minimales Alter</t>
+  </si>
+  <si>
+    <t>mind. Platzierung</t>
+  </si>
+  <si>
+    <t>LMS - 2024</t>
+  </si>
+  <si>
+    <t>Wertung</t>
+  </si>
+  <si>
+    <t>Mehrkampf</t>
+  </si>
+  <si>
+    <t>DEM - 2024</t>
+  </si>
+  <si>
+    <t>Einzelkampf</t>
+  </si>
+  <si>
+    <t>DMM - 2024</t>
+  </si>
+  <si>
+    <t>Kader</t>
+  </si>
+  <si>
+    <t>Juniorenkader</t>
+  </si>
+  <si>
+    <t>Badenkader</t>
+  </si>
+  <si>
+    <t>LMS - 2025</t>
+  </si>
+  <si>
+    <t>DEM - 2025</t>
+  </si>
+  <si>
+    <t>DMM - 2025</t>
+  </si>
+  <si>
+    <t>LMS - 2026</t>
+  </si>
+  <si>
+    <t>DEM - 2026</t>
+  </si>
+  <si>
+    <t>DMM - 2026</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m:ss.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +299,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -275,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -310,39 +380,6 @@
       <bottom style="medium">
         <color theme="0"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color theme="3" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -413,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -479,75 +516,53 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color theme="6"/>
@@ -1275,44 +1290,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A1:M28" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A1:M28" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="A1:M28" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="28">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten3" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi4" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver5" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver6" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis7" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{21F420C9-E788-49EE-88F6-E37963ED31CF}" name="100m Lifesaver" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{CB87B7CD-8A9C-4775-A4D7-4D267F43FD1A}" name="200m Superlifesaver" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{2DC7F290-B564-4851-85AE-D211DA701B32}" name="200m Hindernis" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{8112783D-8796-4D6A-8414-AC675D745697}" name="50m Retten2" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{4E818CD4-8725-495D-9D1D-1AFCED9181F5}" name="100m Retten3" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{28C05A91-E302-40A9-B50A-ECF997F129FC}" name="100m Kombi4" dataDxfId="19"/>
+    <tableColumn id="11" xr3:uid="{D56FB9F2-45BF-4EC9-A84C-8A5FB59F2F05}" name="100m Lifesaver5" dataDxfId="18"/>
+    <tableColumn id="12" xr3:uid="{540169C0-2A40-4794-A872-F7DF8A887BF2}" name="200m Superlifesaver6" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{D104CB67-B55A-4C81-87E5-0AC758DD22A4}" name="200m Hindernis7" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A1:M28" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A1:M28" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
   <autoFilter ref="A1:M28" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="12">
       <calculatedColumnFormula>A1+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten " dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten " dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{F0B7AC37-315E-49AA-855C-7955D2B43A76}" name="100m Kombi" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B5E690AB-DB7D-4864-8916-89D2A68C4128}" name="100m Lifesaver" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{D89BAF4D-36AE-4C73-9320-9C5736F02F8A}" name="200m Superlifesaver" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{58AE7517-1A90-459F-A7D2-B95265D217E7}" name="200m Hindernis" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{13A189FB-E897-4A1F-A001-525F61E9CFFF}" name="50m Retten " dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{36418AC5-46B8-400F-BD2E-D329CF4F92CD}" name="100m Retten " dataDxfId="4"/>
     <tableColumn id="10" xr3:uid="{06A35C2D-7313-472B-BC1F-4F2FB1D14782}" name="100m Kombi "/>
     <tableColumn id="11" xr3:uid="{89966D0D-9131-4245-A7BE-1A7384D5ADA0}" name="100m Lifesaver "/>
     <tableColumn id="12" xr3:uid="{D9D6CF56-869C-4DDE-9886-572D4E523A8F}" name="200m Superlifesaver "/>
@@ -1642,7 +1657,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2471,12 +2486,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G28">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>B2&lt;&gt;B1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:M28">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>H2&lt;&gt;H1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2492,7 +2507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5FFB6C-7DEA-4C95-82B5-1769BD3934D8}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -3642,12 +3657,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:G28">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>B2&lt;&gt;B1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:M28">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>H2&lt;&gt;H1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3661,10 +3676,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FA05-76A3-4AE3-B1B5-E78B06AE489F}">
-  <dimension ref="A1:N11"/>
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3887,28 +3905,61 @@
         <v>740</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+    </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="str">
+      <c r="B9" s="33" t="str">
         <f t="shared" ref="B9:M11" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
         <v>0:42,70</v>
       </c>
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="33" t="str">
         <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
         <v>1:03,01</v>
       </c>
-      <c r="D9" s="28" t="str">
+      <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
         <v>1:29,68</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:12,99</v>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="F9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>3:01,79</v>
       </c>
@@ -3916,151 +3967,420 @@
         <f t="shared" si="1"/>
         <v>2:38,25</v>
       </c>
-      <c r="H9" s="28" t="str">
+      <c r="H9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>0:37,31</v>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>0:58,71</v>
       </c>
-      <c r="J9" s="28" t="str">
+      <c r="J9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:16,18</v>
       </c>
-      <c r="K9" s="28" t="str">
+      <c r="K9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:03,88</v>
       </c>
-      <c r="L9" s="28" t="str">
+      <c r="L9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2:42,31</v>
       </c>
-      <c r="M9" s="28" t="str">
+      <c r="M9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2:29,12</v>
       </c>
       <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29" t="str">
+      <c r="B10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>0:42,70</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:03,01</v>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:29,68</v>
       </c>
-      <c r="E10" s="29" t="str">
+      <c r="E10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:12,99</v>
       </c>
-      <c r="F10" s="29" t="str">
+      <c r="F10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>3:01,79</v>
       </c>
-      <c r="G10" s="35" t="str">
+      <c r="G10" s="31" t="str">
         <f t="shared" si="0"/>
         <v>2:38,25</v>
       </c>
-      <c r="H10" s="29" t="str">
+      <c r="H10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>0:37,31</v>
       </c>
-      <c r="I10" s="29" t="str">
+      <c r="I10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>0:58,71</v>
       </c>
-      <c r="J10" s="29" t="str">
+      <c r="J10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:16,18</v>
       </c>
-      <c r="K10" s="29" t="str">
+      <c r="K10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:03,88</v>
       </c>
-      <c r="L10" s="29" t="str">
+      <c r="L10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2:42,31</v>
       </c>
-      <c r="M10" s="29" t="str">
+      <c r="M10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2:29,12</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="str">
+      <c r="B11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0:41,76</v>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:02,97</v>
       </c>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:24,90</v>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="E11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:10,76</v>
       </c>
-      <c r="F11" s="30" t="str">
+      <c r="F11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>2:53,81</v>
       </c>
-      <c r="G11" s="36" t="str">
+      <c r="G11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>2:35,68</v>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="H11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0:34,83</v>
       </c>
-      <c r="I11" s="30" t="str">
+      <c r="I11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0:56,25</v>
       </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:13,65</v>
       </c>
-      <c r="K11" s="30" t="str">
+      <c r="K11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:02,47</v>
       </c>
-      <c r="L11" s="30" t="str">
+      <c r="L11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>2:37,09</v>
       </c>
-      <c r="M11" s="30" t="str">
+      <c r="M11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>2:24,54</v>
       </c>
-      <c r="N11" s="27"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="10">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="8">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
+        <v>10</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="10">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10">
+        <v>100</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="8">
+        <v>17</v>
+      </c>
+      <c r="C23" s="8">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10">
+        <v>100</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:F15"/>
+    <mergeCell ref="A7:N8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831D901-68D8-4F92-82B6-BCB1A3899285}">
-  <dimension ref="A1:N11"/>
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4090,7 +4410,7 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -4139,7 +4459,7 @@
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
         <v>181.79</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="29">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
         <v>158.25</v>
       </c>
@@ -4195,7 +4515,7 @@
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
         <v>181.79</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
         <v>158.25</v>
       </c>
@@ -4251,7 +4571,7 @@
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(F$1))*86400,2)</f>
         <v>173.81</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="29">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(G$1))*86400,2)</f>
         <v>155.68</v>
       </c>
@@ -4283,39 +4603,61 @@
         <v>740</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="37"/>
-    </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="38"/>
+      <c r="A7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="str">
-        <f t="shared" ref="B9:M9" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
+      <c r="B9" s="33" t="str">
+        <f t="shared" ref="B9" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
         <v>0:42,70</v>
       </c>
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="33" t="str">
         <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
         <v>1:03,01</v>
       </c>
-      <c r="D9" s="28" t="str">
+      <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
         <v>1:28,26</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:12,92</v>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="F9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>3:01,79</v>
       </c>
@@ -4323,151 +4665,353 @@
         <f t="shared" si="1"/>
         <v>2:38,25</v>
       </c>
-      <c r="H9" s="28" t="str">
+      <c r="H9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>0:36,89</v>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>0:58,14</v>
       </c>
-      <c r="J9" s="28" t="str">
+      <c r="J9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:16,18</v>
       </c>
-      <c r="K9" s="28" t="str">
+      <c r="K9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:03,88</v>
       </c>
-      <c r="L9" s="28" t="str">
+      <c r="L9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2:42,31</v>
       </c>
-      <c r="M9" s="28" t="str">
+      <c r="M9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2:29,12</v>
       </c>
       <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29" t="str">
+      <c r="B10" s="26" t="str">
         <f t="shared" ref="B10:M10" si="2">CONCATENATE(ROUNDDOWN(B3/60,0),":",TEXT(B3-(60*ROUNDDOWN(B3/60,0)),"00,00"))</f>
         <v>0:42,70</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>1:03,01</v>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>1:28,26</v>
       </c>
-      <c r="E10" s="29" t="str">
+      <c r="E10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>1:12,92</v>
       </c>
-      <c r="F10" s="29" t="str">
+      <c r="F10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>3:01,79</v>
       </c>
-      <c r="G10" s="35" t="str">
+      <c r="G10" s="31" t="str">
         <f t="shared" si="2"/>
         <v>2:38,25</v>
       </c>
-      <c r="H10" s="29" t="str">
+      <c r="H10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>0:36,89</v>
       </c>
-      <c r="I10" s="29" t="str">
+      <c r="I10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>0:58,14</v>
       </c>
-      <c r="J10" s="29" t="str">
+      <c r="J10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>1:16,18</v>
       </c>
-      <c r="K10" s="29" t="str">
+      <c r="K10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>1:03,88</v>
       </c>
-      <c r="L10" s="29" t="str">
+      <c r="L10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>2:42,31</v>
       </c>
-      <c r="M10" s="29" t="str">
+      <c r="M10" s="26" t="str">
         <f t="shared" si="2"/>
         <v>2:29,12</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="str">
+      <c r="B11" s="27" t="str">
         <f t="shared" ref="B11:M11" si="3">CONCATENATE(ROUNDDOWN(B4/60,0),":",TEXT(B4-(60*ROUNDDOWN(B4/60,0)),"00,00"))</f>
         <v>0:41,13</v>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>1:02,97</v>
       </c>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>1:23,98</v>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="E11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>1:10,29</v>
       </c>
-      <c r="F11" s="30" t="str">
+      <c r="F11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>2:53,81</v>
       </c>
-      <c r="G11" s="36" t="str">
+      <c r="G11" s="32" t="str">
         <f t="shared" si="3"/>
         <v>2:35,68</v>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="H11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>0:34,74</v>
       </c>
-      <c r="I11" s="30" t="str">
+      <c r="I11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>0:56,16</v>
       </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>1:13,65</v>
       </c>
-      <c r="K11" s="30" t="str">
+      <c r="K11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>1:00,90</v>
       </c>
-      <c r="L11" s="30" t="str">
+      <c r="L11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>2:37,09</v>
       </c>
-      <c r="M11" s="30" t="str">
+      <c r="M11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>2:22,72</v>
       </c>
-      <c r="N11" s="27"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="10">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="10">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="8">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
+        <v>10</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="10">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10">
+        <v>100</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="8">
+        <v>17</v>
+      </c>
+      <c r="C23" s="8">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="10">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10">
+        <v>100</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:N8"/>
+    <mergeCell ref="A14:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EDE853-0977-425B-964D-7249E4F0A6C8}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4497,7 +5041,7 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="28" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -4546,7 +5090,7 @@
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
         <v>189.01</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="29">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
         <v>164.57</v>
       </c>
@@ -4602,7 +5146,7 @@
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
         <v>181.75</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="30">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
         <v>158.25</v>
       </c>
@@ -4658,7 +5202,7 @@
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(F$1))*86400,2)</f>
         <v>173.81</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="29">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(G$1))*86400,2)</f>
         <v>155.68</v>
       </c>
@@ -4690,39 +5234,61 @@
         <v>740</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="37"/>
-    </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="38"/>
+      <c r="A7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="28" t="str">
+      <c r="B9" s="33" t="str">
         <f t="shared" ref="B9:M11" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
         <v>0:44,41</v>
       </c>
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="33" t="str">
         <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
         <v>1:05,53</v>
       </c>
-      <c r="D9" s="28" t="str">
+      <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
         <v>1:31,79</v>
       </c>
-      <c r="E9" s="28" t="str">
+      <c r="E9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:15,84</v>
       </c>
-      <c r="F9" s="28" t="str">
+      <c r="F9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>3:09,01</v>
       </c>
@@ -4730,141 +5296,343 @@
         <f t="shared" si="1"/>
         <v>2:44,57</v>
       </c>
-      <c r="H9" s="28" t="str">
+      <c r="H9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>0:38,36</v>
       </c>
-      <c r="I9" s="28" t="str">
+      <c r="I9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:00,47</v>
       </c>
-      <c r="J9" s="28" t="str">
+      <c r="J9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:19,22</v>
       </c>
-      <c r="K9" s="28" t="str">
+      <c r="K9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>1:06,43</v>
       </c>
-      <c r="L9" s="28" t="str">
+      <c r="L9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2:48,79</v>
       </c>
-      <c r="M9" s="28" t="str">
+      <c r="M9" s="33" t="str">
         <f t="shared" si="1"/>
         <v>2:35,07</v>
       </c>
       <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="29" t="str">
+      <c r="B10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>0:42,70</v>
       </c>
-      <c r="C10" s="29" t="str">
+      <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:03,01</v>
       </c>
-      <c r="D10" s="29" t="str">
+      <c r="D10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:28,26</v>
       </c>
-      <c r="E10" s="29" t="str">
+      <c r="E10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:12,92</v>
       </c>
-      <c r="F10" s="29" t="str">
+      <c r="F10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>3:01,75</v>
       </c>
-      <c r="G10" s="35" t="str">
+      <c r="G10" s="31" t="str">
         <f t="shared" si="0"/>
         <v>2:38,25</v>
       </c>
-      <c r="H10" s="29" t="str">
+      <c r="H10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>0:36,89</v>
       </c>
-      <c r="I10" s="29" t="str">
+      <c r="I10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>0:58,14</v>
       </c>
-      <c r="J10" s="29" t="str">
+      <c r="J10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:16,18</v>
       </c>
-      <c r="K10" s="29" t="str">
+      <c r="K10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>1:03,88</v>
       </c>
-      <c r="L10" s="29" t="str">
+      <c r="L10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2:42,31</v>
       </c>
-      <c r="M10" s="29" t="str">
+      <c r="M10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>2:29,12</v>
       </c>
-      <c r="N10" s="25"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="str">
+      <c r="B11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0:40,21</v>
       </c>
-      <c r="C11" s="30" t="str">
+      <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:02,97</v>
       </c>
-      <c r="D11" s="30" t="str">
+      <c r="D11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:21,35</v>
       </c>
-      <c r="E11" s="30" t="str">
+      <c r="E11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:09,96</v>
       </c>
-      <c r="F11" s="30" t="str">
+      <c r="F11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>2:53,81</v>
       </c>
-      <c r="G11" s="36" t="str">
+      <c r="G11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>2:35,68</v>
       </c>
-      <c r="H11" s="30" t="str">
+      <c r="H11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0:34,74</v>
       </c>
-      <c r="I11" s="30" t="str">
+      <c r="I11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>0:55,30</v>
       </c>
-      <c r="J11" s="30" t="str">
+      <c r="J11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:13,63</v>
       </c>
-      <c r="K11" s="30" t="str">
+      <c r="K11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>1:00,90</v>
       </c>
-      <c r="L11" s="30" t="str">
+      <c r="L11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>2:37,09</v>
       </c>
-      <c r="M11" s="30" t="str">
+      <c r="M11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>2:22,72</v>
       </c>
-      <c r="N11" s="27"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8">
+        <v>18</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10">
+        <v>13</v>
+      </c>
+      <c r="C18" s="10">
+        <v>14</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="8">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8">
+        <v>18</v>
+      </c>
+      <c r="D19" s="8">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="10">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10">
+        <v>14</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="8">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
+        <v>10</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="10">
+        <v>12</v>
+      </c>
+      <c r="C22" s="10">
+        <v>100</v>
+      </c>
+      <c r="D22" s="10">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="8">
+        <v>17</v>
+      </c>
+      <c r="C23" s="8">
+        <v>18</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="10">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10">
+        <v>100</v>
+      </c>
+      <c r="D24" s="10">
+        <v>4</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A7:N8"/>
+    <mergeCell ref="A14:F15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C733436B-B32D-489D-87FD-213F49882BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321CE53F-AAB1-41DB-A265-A922674B2466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -3681,8 +3681,8 @@
   </sheetPr>
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5010,8 +5010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EDE853-0977-425B-964D-7249E4F0A6C8}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321CE53F-AAB1-41DB-A265-A922674B2466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E60BF-5392-48D3-85AF-2821965F1B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -107,8 +107,80 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jan-Philipp Gnad</author>
+  </authors>
+  <commentList>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{E09A097D-FD45-454A-8267-811E26299141}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ocean / Entfernen / Sondernominierung</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jan-Philipp Gnad</author>
+  </authors>
+  <commentList>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{CA951B8F-42C9-423F-A284-F880B3147653}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ocean / Entfernen / Sondernominierung</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jan-Philipp Gnad</author>
+  </authors>
+  <commentList>
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{5CCD82D8-083B-4385-8F59-F93295BBC0B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ocean / Entfernen / Sondernominierung</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="57">
   <si>
     <t>50m Retten</t>
   </si>
@@ -244,6 +316,42 @@
   <si>
     <t>DMM - 2026</t>
   </si>
+  <si>
+    <t>Gnad, Johanna</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Gnad, Jan-Philipp</t>
+  </si>
+  <si>
+    <t>Kriterium</t>
+  </si>
+  <si>
+    <t>Rupp, Oliver</t>
+  </si>
+  <si>
+    <t>Bittighofer, Daniel</t>
+  </si>
+  <si>
+    <t>Entfernen</t>
+  </si>
+  <si>
+    <t>Sonderregeln</t>
+  </si>
+  <si>
+    <t>Anmeldungen</t>
+  </si>
+  <si>
+    <t>Nachname, Name</t>
+  </si>
+  <si>
+    <t>Uhl, Emma</t>
+  </si>
+  <si>
+    <t>Dziacko, Malina</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +360,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m:ss.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +413,14 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -450,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -557,6 +673,31 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1289,6 +1430,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A1:M28" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="A1:M28" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
@@ -3675,14 +3820,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FA05-76A3-4AE3-B1B5-E78B06AE489F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FA05-76A3-4AE3-B1B5-E78B06AE489F}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3743,54 +3888,54 @@
       </c>
       <c r="B2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>42.7</v>
+        <v>44.41</v>
       </c>
       <c r="C2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>63.01</v>
+        <v>65.53</v>
       </c>
       <c r="D2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>89.68</v>
+        <v>93.26</v>
       </c>
       <c r="E2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>72.989999999999995</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="F2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>181.79</v>
+        <v>189.05</v>
       </c>
       <c r="G2" s="17">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>158.25</v>
+        <v>164.57</v>
       </c>
       <c r="H2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>37.31</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="I2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>58.71</v>
+        <v>61.05</v>
       </c>
       <c r="J2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>76.180000000000007</v>
+        <v>79.22</v>
       </c>
       <c r="K2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>63.88</v>
+        <v>66.430000000000007</v>
       </c>
       <c r="L2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>162.31</v>
+        <v>168.79</v>
       </c>
       <c r="M2" s="17">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>149.12</v>
+        <v>155.07</v>
       </c>
       <c r="N2" s="2">
-        <v>740</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3799,54 +3944,54 @@
       </c>
       <c r="B3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>42.7</v>
+        <v>43.54</v>
       </c>
       <c r="C3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>63.01</v>
+        <v>64.25</v>
       </c>
       <c r="D3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>89.68</v>
+        <v>91.45</v>
       </c>
       <c r="E3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>72.989999999999995</v>
+        <v>74.42</v>
       </c>
       <c r="F3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>181.79</v>
+        <v>185.37</v>
       </c>
       <c r="G3" s="19">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>158.25</v>
+        <v>161.36000000000001</v>
       </c>
       <c r="H3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>37.31</v>
+        <v>38.04</v>
       </c>
       <c r="I3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>58.71</v>
+        <v>59.86</v>
       </c>
       <c r="J3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>76.180000000000007</v>
+        <v>77.680000000000007</v>
       </c>
       <c r="K3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>63.88</v>
+        <v>65.14</v>
       </c>
       <c r="L3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>162.31</v>
+        <v>165.5</v>
       </c>
       <c r="M3" s="19">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>149.12</v>
+        <v>152.05000000000001</v>
       </c>
       <c r="N3" s="2">
-        <v>740</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3945,51 +4090,51 @@
       </c>
       <c r="B9" s="33" t="str">
         <f t="shared" ref="B9:M11" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
-        <v>0:42,70</v>
+        <v>0:44,41</v>
       </c>
       <c r="C9" s="33" t="str">
         <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
-        <v>1:03,01</v>
+        <v>1:05,53</v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
-        <v>1:29,68</v>
+        <v>1:33,26</v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>1:12,99</v>
+        <v>1:15,90</v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>3:01,79</v>
+        <v>3:09,05</v>
       </c>
       <c r="G9" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>2:38,25</v>
+        <v>2:44,57</v>
       </c>
       <c r="H9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>0:37,31</v>
+        <v>0:38,80</v>
       </c>
       <c r="I9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>0:58,71</v>
+        <v>1:01,05</v>
       </c>
       <c r="J9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>1:16,18</v>
+        <v>1:19,22</v>
       </c>
       <c r="K9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>1:03,88</v>
+        <v>1:06,43</v>
       </c>
       <c r="L9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>2:42,31</v>
+        <v>2:48,79</v>
       </c>
       <c r="M9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>2:29,12</v>
+        <v>2:35,07</v>
       </c>
       <c r="N9" s="23"/>
     </row>
@@ -3999,51 +4144,51 @@
       </c>
       <c r="B10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0:42,70</v>
+        <v>0:43,54</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:03,01</v>
+        <v>1:04,25</v>
       </c>
       <c r="D10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:29,68</v>
+        <v>1:31,45</v>
       </c>
       <c r="E10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:12,99</v>
+        <v>1:14,42</v>
       </c>
       <c r="F10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>3:01,79</v>
+        <v>3:05,37</v>
       </c>
       <c r="G10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2:38,25</v>
+        <v>2:41,36</v>
       </c>
       <c r="H10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0:37,31</v>
+        <v>0:38,04</v>
       </c>
       <c r="I10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0:58,71</v>
+        <v>0:59,86</v>
       </c>
       <c r="J10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:16,18</v>
+        <v>1:17,68</v>
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:03,88</v>
+        <v>1:05,14</v>
       </c>
       <c r="L10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>2:42,31</v>
+        <v>2:45,50</v>
       </c>
       <c r="M10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>2:29,12</v>
+        <v>2:32,05</v>
       </c>
       <c r="N10" s="23"/>
     </row>
@@ -4111,11 +4256,14 @@
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
       <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+      <c r="H14" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="L14" s="41" t="s">
+        <v>53</v>
+      </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
@@ -4127,11 +4275,10 @@
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
       <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="L15" s="41"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>
@@ -4155,11 +4302,18 @@
         <v>36</v>
       </c>
       <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
+      <c r="H16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="M16"/>
       <c r="N16"/>
     </row>
@@ -4183,11 +4337,16 @@
         <v>37</v>
       </c>
       <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
+      <c r="H17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="42"/>
       <c r="M17"/>
       <c r="N17"/>
     </row>
@@ -4211,11 +4370,16 @@
         <v>37</v>
       </c>
       <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
+      <c r="H18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="44"/>
       <c r="M18"/>
       <c r="N18"/>
     </row>
@@ -4239,11 +4403,16 @@
         <v>37</v>
       </c>
       <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="H19" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="42"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
@@ -4267,11 +4436,14 @@
         <v>37</v>
       </c>
       <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
+      <c r="H20" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="L20" s="44"/>
       <c r="M20"/>
       <c r="N20"/>
     </row>
@@ -4295,11 +4467,10 @@
         <v>37</v>
       </c>
       <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
       <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+      <c r="L21" s="42"/>
       <c r="M21"/>
       <c r="N21"/>
     </row>
@@ -4322,6 +4493,9 @@
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -4342,6 +4516,9 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -4362,25 +4539,66 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="L25" s="43"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L26" s="45"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L27" s="43"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L29" s="43"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="45"/>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A14:F15"/>
     <mergeCell ref="A7:N8"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H14:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831D901-68D8-4F92-82B6-BCB1A3899285}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831D901-68D8-4F92-82B6-BCB1A3899285}">
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4441,54 +4659,54 @@
       </c>
       <c r="B2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>42.7</v>
+        <v>43.97</v>
       </c>
       <c r="C2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>63.01</v>
+        <v>64.88</v>
       </c>
       <c r="D2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>88.26</v>
+        <v>90.89</v>
       </c>
       <c r="E2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>72.92</v>
+        <v>75.09</v>
       </c>
       <c r="F2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>181.79</v>
+        <v>187.19</v>
       </c>
       <c r="G2" s="29">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>158.25</v>
+        <v>162.94999999999999</v>
       </c>
       <c r="H2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>36.89</v>
+        <v>37.99</v>
       </c>
       <c r="I2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>58.14</v>
+        <v>59.87</v>
       </c>
       <c r="J2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>76.180000000000007</v>
+        <v>78.44</v>
       </c>
       <c r="K2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>63.88</v>
+        <v>65.78</v>
       </c>
       <c r="L2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>162.31</v>
+        <v>167.14</v>
       </c>
       <c r="M2" s="17">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>149.12</v>
+        <v>153.55000000000001</v>
       </c>
       <c r="N2" s="2">
-        <v>740</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4497,54 +4715,54 @@
       </c>
       <c r="B3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>42.7</v>
+        <v>43.12</v>
       </c>
       <c r="C3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>63.01</v>
+        <v>63.63</v>
       </c>
       <c r="D3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>88.26</v>
+        <v>89.13</v>
       </c>
       <c r="E3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>72.92</v>
+        <v>73.63</v>
       </c>
       <c r="F3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>181.79</v>
+        <v>183.57</v>
       </c>
       <c r="G3" s="30">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>158.25</v>
+        <v>159.79</v>
       </c>
       <c r="H3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>36.89</v>
+        <v>37.25</v>
       </c>
       <c r="I3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>58.14</v>
+        <v>58.71</v>
       </c>
       <c r="J3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>76.180000000000007</v>
+        <v>76.92</v>
       </c>
       <c r="K3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>63.88</v>
+        <v>64.5</v>
       </c>
       <c r="L3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>162.31</v>
+        <v>163.9</v>
       </c>
       <c r="M3" s="19">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>149.12</v>
+        <v>150.57</v>
       </c>
       <c r="N3" s="2">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4643,51 +4861,51 @@
       </c>
       <c r="B9" s="33" t="str">
         <f t="shared" ref="B9" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
-        <v>0:42,70</v>
+        <v>0:43,97</v>
       </c>
       <c r="C9" s="33" t="str">
         <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
-        <v>1:03,01</v>
+        <v>1:04,88</v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
-        <v>1:28,26</v>
+        <v>1:30,89</v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>1:12,92</v>
+        <v>1:15,09</v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>3:01,79</v>
+        <v>3:07,19</v>
       </c>
       <c r="G9" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>2:38,25</v>
+        <v>2:42,95</v>
       </c>
       <c r="H9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>0:36,89</v>
+        <v>0:37,99</v>
       </c>
       <c r="I9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>0:58,14</v>
+        <v>0:59,87</v>
       </c>
       <c r="J9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>1:16,18</v>
+        <v>1:18,44</v>
       </c>
       <c r="K9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>1:03,88</v>
+        <v>1:05,78</v>
       </c>
       <c r="L9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>2:42,31</v>
+        <v>2:47,14</v>
       </c>
       <c r="M9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>2:29,12</v>
+        <v>2:33,55</v>
       </c>
       <c r="N9" s="23"/>
     </row>
@@ -4697,51 +4915,51 @@
       </c>
       <c r="B10" s="26" t="str">
         <f t="shared" ref="B10:M10" si="2">CONCATENATE(ROUNDDOWN(B3/60,0),":",TEXT(B3-(60*ROUNDDOWN(B3/60,0)),"00,00"))</f>
-        <v>0:42,70</v>
+        <v>0:43,12</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>1:03,01</v>
+        <v>1:03,63</v>
       </c>
       <c r="D10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>1:28,26</v>
+        <v>1:29,13</v>
       </c>
       <c r="E10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>1:12,92</v>
+        <v>1:13,63</v>
       </c>
       <c r="F10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>3:01,79</v>
+        <v>3:03,57</v>
       </c>
       <c r="G10" s="31" t="str">
         <f t="shared" si="2"/>
-        <v>2:38,25</v>
+        <v>2:39,79</v>
       </c>
       <c r="H10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>0:36,89</v>
+        <v>0:37,25</v>
       </c>
       <c r="I10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>0:58,14</v>
+        <v>0:58,71</v>
       </c>
       <c r="J10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>1:16,18</v>
+        <v>1:16,92</v>
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>1:03,88</v>
+        <v>1:04,50</v>
       </c>
       <c r="L10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>2:42,31</v>
+        <v>2:43,90</v>
       </c>
       <c r="M10" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>2:29,12</v>
+        <v>2:30,57</v>
       </c>
       <c r="N10" s="23"/>
     </row>
@@ -4808,6 +5026,15 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
+      <c r="H14" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="L14" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -4816,6 +5043,11 @@
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -4836,8 +5068,21 @@
       <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>39</v>
       </c>
@@ -4856,8 +5101,19 @@
       <c r="F17" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>39</v>
       </c>
@@ -4876,8 +5132,19 @@
       <c r="F18" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="44"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>40</v>
       </c>
@@ -4896,8 +5163,19 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="42"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>39</v>
       </c>
@@ -4916,8 +5194,17 @@
       <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" s="40"/>
+      <c r="L20" s="44"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>41</v>
       </c>
@@ -4936,8 +5223,19 @@
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
@@ -4956,8 +5254,19 @@
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L22" s="45"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>39</v>
       </c>
@@ -4976,8 +5285,12 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="L23" s="43"/>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
@@ -4996,22 +5309,97 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="L24" s="45"/>
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="L25" s="43"/>
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="45"/>
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="43"/>
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="45"/>
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="43"/>
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="45"/>
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="43"/>
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" s="45"/>
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L33" s="43"/>
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L34" s="45"/>
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="45"/>
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A7:N8"/>
     <mergeCell ref="A14:F15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="L14:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EDE853-0977-425B-964D-7249E4F0A6C8}">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EDE853-0977-425B-964D-7249E4F0A6C8}">
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="L14" sqref="L14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5439,6 +5827,14 @@
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
+      <c r="H14" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="L14" s="41" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
@@ -5447,6 +5843,10 @@
       <c r="D15" s="35"/>
       <c r="E15" s="35"/>
       <c r="F15" s="35"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5467,8 +5867,20 @@
       <c r="F16" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
@@ -5487,8 +5899,12 @@
       <c r="F17" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="39"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="L17" s="42"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>42</v>
       </c>
@@ -5507,8 +5923,12 @@
       <c r="F18" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="L18" s="44"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>43</v>
       </c>
@@ -5527,8 +5947,12 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="L19" s="42"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>42</v>
       </c>
@@ -5547,8 +5971,12 @@
       <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="L20" s="44"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>44</v>
       </c>
@@ -5567,8 +5995,12 @@
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="L21" s="42"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>43</v>
       </c>
@@ -5587,8 +6019,12 @@
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="43"/>
+      <c r="L22" s="45"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
@@ -5607,8 +6043,12 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="45"/>
+      <c r="L23" s="43"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -5627,12 +6067,89 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="43"/>
+      <c r="L24" s="45"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="L25" s="43"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="45"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="43"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="45"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L29" s="43"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="45"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="45"/>
+    </row>
+    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="43"/>
+    </row>
+    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="45"/>
+    </row>
+    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="45"/>
+    </row>
+    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+    </row>
+    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+    </row>
+    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+    </row>
+    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+    </row>
+    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A7:N8"/>
     <mergeCell ref="A14:F15"/>
+    <mergeCell ref="H14:J15"/>
+    <mergeCell ref="L14:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E60BF-5392-48D3-85AF-2821965F1B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B7D38-DF67-41D1-89F9-D36397B55FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -668,12 +668,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,9 +680,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -698,6 +689,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1430,10 +1430,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A1:M28" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
   <autoFilter ref="A1:M28" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
@@ -3827,7 +3823,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4051,38 +4047,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -4247,38 +4243,38 @@
       <c r="N11" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14"/>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="L14" s="41" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="L14" s="47" t="s">
         <v>53</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="L15" s="41"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="L15" s="47"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>
@@ -4337,7 +4333,7 @@
         <v>37</v>
       </c>
       <c r="G17"/>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="37" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -4346,7 +4342,7 @@
       <c r="J17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="42"/>
+      <c r="L17" s="39"/>
       <c r="M17"/>
       <c r="N17"/>
     </row>
@@ -4370,16 +4366,16 @@
         <v>37</v>
       </c>
       <c r="G18"/>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="44"/>
+      <c r="L18" s="41"/>
       <c r="M18"/>
       <c r="N18"/>
     </row>
@@ -4403,16 +4399,16 @@
         <v>37</v>
       </c>
       <c r="G19"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="42"/>
+      <c r="L19" s="39"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
@@ -4436,14 +4432,14 @@
         <v>37</v>
       </c>
       <c r="G20"/>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="L20" s="44"/>
+      <c r="J20" s="38"/>
+      <c r="L20" s="41"/>
       <c r="M20"/>
       <c r="N20"/>
     </row>
@@ -4467,10 +4463,10 @@
         <v>37</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
       <c r="J21"/>
-      <c r="L21" s="42"/>
+      <c r="L21" s="39"/>
       <c r="M21"/>
       <c r="N21"/>
     </row>
@@ -4493,9 +4489,9 @@
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="L22" s="45"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -4516,9 +4512,9 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="L23" s="43"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -4539,44 +4535,44 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="L24" s="45"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="L25" s="43"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L26" s="45"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L27" s="43"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L28" s="45"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L29" s="43"/>
+      <c r="L29" s="40"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L30" s="45"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L31" s="43"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L32" s="45"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="43"/>
+      <c r="L33" s="40"/>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="45"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="45"/>
+      <c r="L36" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4598,7 +4594,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4659,54 +4655,54 @@
       </c>
       <c r="B2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>43.97</v>
+        <v>44.41</v>
       </c>
       <c r="C2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>64.88</v>
+        <v>65.53</v>
       </c>
       <c r="D2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>90.89</v>
+        <v>91.79</v>
       </c>
       <c r="E2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>75.09</v>
+        <v>75.84</v>
       </c>
       <c r="F2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>187.19</v>
+        <v>189.05</v>
       </c>
       <c r="G2" s="29">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>162.94999999999999</v>
+        <v>164.57</v>
       </c>
       <c r="H2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>37.99</v>
+        <v>38.36</v>
       </c>
       <c r="I2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>59.87</v>
+        <v>60.47</v>
       </c>
       <c r="J2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>78.44</v>
+        <v>79.22</v>
       </c>
       <c r="K2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>65.78</v>
+        <v>66.430000000000007</v>
       </c>
       <c r="L2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>167.14</v>
+        <v>168.79</v>
       </c>
       <c r="M2" s="17">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>153.55000000000001</v>
+        <v>155.07</v>
       </c>
       <c r="N2" s="2">
-        <v>710</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,38 +4818,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -4861,51 +4857,51 @@
       </c>
       <c r="B9" s="33" t="str">
         <f t="shared" ref="B9" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
-        <v>0:43,97</v>
+        <v>0:44,41</v>
       </c>
       <c r="C9" s="33" t="str">
         <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
-        <v>1:04,88</v>
+        <v>1:05,53</v>
       </c>
       <c r="D9" s="33" t="str">
         <f t="shared" ref="D9:M9" si="1">CONCATENATE(ROUNDDOWN(D2/60,0),":",TEXT(D2-(60*ROUNDDOWN(D2/60,0)),"00,00"))</f>
-        <v>1:30,89</v>
+        <v>1:31,79</v>
       </c>
       <c r="E9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>1:15,09</v>
+        <v>1:15,84</v>
       </c>
       <c r="F9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>3:07,19</v>
+        <v>3:09,05</v>
       </c>
       <c r="G9" s="34" t="str">
         <f t="shared" si="1"/>
-        <v>2:42,95</v>
+        <v>2:44,57</v>
       </c>
       <c r="H9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>0:37,99</v>
+        <v>0:38,36</v>
       </c>
       <c r="I9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>0:59,87</v>
+        <v>1:00,47</v>
       </c>
       <c r="J9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>1:18,44</v>
+        <v>1:19,22</v>
       </c>
       <c r="K9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>1:05,78</v>
+        <v>1:06,43</v>
       </c>
       <c r="L9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>2:47,14</v>
+        <v>2:48,79</v>
       </c>
       <c r="M9" s="33" t="str">
         <f t="shared" si="1"/>
-        <v>2:33,55</v>
+        <v>2:35,07</v>
       </c>
       <c r="N9" s="23"/>
     </row>
@@ -5018,35 +5014,35 @@
       <c r="N11" s="25"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="H14" s="41" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="H14" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="L14" s="41" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="L14" s="47" t="s">
         <v>53</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="L15" s="41"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="L15" s="47"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5101,7 +5097,7 @@
       <c r="F17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="39" t="s">
+      <c r="H17" s="37" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -5110,7 +5106,7 @@
       <c r="J17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="42"/>
+      <c r="L17" s="39"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5132,16 +5128,16 @@
       <c r="F18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="40" t="s">
+      <c r="I18" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="44"/>
+      <c r="L18" s="41"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -5163,16 +5159,16 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="39" t="s">
+      <c r="I19" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="39" t="s">
+      <c r="J19" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="42"/>
+      <c r="L19" s="39"/>
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -5194,14 +5190,14 @@
       <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="L20" s="44"/>
+      <c r="J20" s="38"/>
+      <c r="L20" s="41"/>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5223,16 +5219,16 @@
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="42"/>
+      <c r="L21" s="39"/>
       <c r="M21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5254,16 +5250,16 @@
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="46" t="s">
+      <c r="H22" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="46" t="s">
+      <c r="I22" s="43" t="s">
         <v>46</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="45"/>
+      <c r="L22" s="42"/>
       <c r="M22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5285,9 +5281,9 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="L23" s="43"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="L23" s="40"/>
       <c r="M23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -5309,58 +5305,58 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="L24" s="45"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="L24" s="42"/>
       <c r="M24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="L25" s="43"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="L25" s="40"/>
       <c r="M25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L26" s="45"/>
+      <c r="L26" s="42"/>
       <c r="M26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L27" s="43"/>
+      <c r="L27" s="40"/>
       <c r="M27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="45"/>
+      <c r="L28" s="42"/>
       <c r="M28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L29" s="43"/>
+      <c r="L29" s="40"/>
       <c r="M29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L30" s="45"/>
+      <c r="L30" s="42"/>
       <c r="M30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L31" s="43"/>
+      <c r="L31" s="40"/>
       <c r="M31"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L32" s="45"/>
+      <c r="L32" s="42"/>
       <c r="M32"/>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="L33" s="43"/>
+      <c r="L33" s="40"/>
       <c r="M33"/>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="L34" s="45"/>
+      <c r="L34" s="42"/>
       <c r="M34"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M35"/>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="L36" s="45"/>
+      <c r="L36" s="42"/>
       <c r="M36"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
@@ -5623,38 +5619,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -5819,34 +5815,34 @@
       <c r="N11" s="25"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="H14" s="41" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="H14" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="L14" s="41" t="s">
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="L14" s="47" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="L15" s="41"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5899,10 +5895,10 @@
       <c r="F17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="37"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="L17" s="42"/>
+      <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -5923,10 +5919,10 @@
       <c r="F18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="L18" s="44"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -5947,10 +5943,10 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="L19" s="42"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -5971,10 +5967,10 @@
       <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="L20" s="44"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -5995,10 +5991,10 @@
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="L21" s="42"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="L21" s="39"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -6019,10 +6015,10 @@
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="43"/>
-      <c r="L22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="40"/>
+      <c r="L22" s="42"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -6043,10 +6039,10 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="45"/>
-      <c r="L23" s="43"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="42"/>
+      <c r="L23" s="40"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -6067,45 +6063,45 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="43"/>
-      <c r="L24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="40"/>
+      <c r="L24" s="42"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="L25" s="43"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="45"/>
+      <c r="L26" s="42"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="43"/>
+      <c r="L27" s="40"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="45"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="43"/>
+      <c r="L29" s="40"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="45"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="43"/>
+      <c r="L31" s="40"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="45"/>
+      <c r="L32" s="42"/>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="43"/>
+      <c r="L33" s="40"/>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="45"/>
+      <c r="L34" s="42"/>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="45"/>
+      <c r="L36" s="42"/>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H37"/>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14B7D38-DF67-41D1-89F9-D36397B55FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF1E7E-D401-42BF-8835-24EE65766B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
   <si>
     <t>50m Retten</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Dziacko, Malina</t>
+  </si>
+  <si>
+    <t>Kuhn, Manuel</t>
   </si>
 </sst>
 </file>
@@ -3822,8 +3825,8 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,9 +4466,15 @@
         <v>37</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21"/>
+      <c r="H21" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="L21" s="39"/>
       <c r="M21"/>
       <c r="N21"/>
@@ -4593,8 +4602,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DF1E7E-D401-42BF-8835-24EE65766B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D404E17-8426-4A42-B7A3-C94B236E6D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="59">
   <si>
     <t>50m Retten</t>
   </si>
@@ -353,7 +353,10 @@
     <t>Dziacko, Malina</t>
   </si>
   <si>
-    <t>Kuhn, Manuel</t>
+    <t>Groß, Ben</t>
+  </si>
+  <si>
+    <t>Sondernominierung</t>
   </si>
 </sst>
 </file>
@@ -569,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -670,9 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3825,8 +3825,8 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4050,38 +4050,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -4246,38 +4246,38 @@
       <c r="N11" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14"/>
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="L14" s="47" t="s">
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="L14" s="46" t="s">
         <v>53</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="L15" s="47"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="L15" s="46"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>
@@ -4336,7 +4336,7 @@
         <v>37</v>
       </c>
       <c r="G17"/>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="36" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -4345,7 +4345,7 @@
       <c r="J17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="38"/>
       <c r="M17"/>
       <c r="N17"/>
     </row>
@@ -4369,16 +4369,16 @@
         <v>37</v>
       </c>
       <c r="G18"/>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="40"/>
       <c r="M18"/>
       <c r="N18"/>
     </row>
@@ -4402,16 +4402,16 @@
         <v>37</v>
       </c>
       <c r="G19"/>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="39"/>
+      <c r="L19" s="38"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
@@ -4435,14 +4435,14 @@
         <v>37</v>
       </c>
       <c r="G20"/>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="L20" s="41"/>
+      <c r="J20" s="37"/>
+      <c r="L20" s="40"/>
       <c r="M20"/>
       <c r="N20"/>
     </row>
@@ -4466,16 +4466,10 @@
         <v>37</v>
       </c>
       <c r="G21"/>
-      <c r="H21" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="L21" s="39"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="L21" s="38"/>
       <c r="M21"/>
       <c r="N21"/>
     </row>
@@ -4498,9 +4492,9 @@
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="L22" s="42"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="L22" s="41"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -4521,9 +4515,9 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="L23" s="40"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -4544,44 +4538,44 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="L24" s="42"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="L25" s="40"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L26" s="42"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L27" s="40"/>
+      <c r="L27" s="39"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L28" s="42"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L29" s="40"/>
+      <c r="L29" s="39"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L30" s="42"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L31" s="40"/>
+      <c r="L31" s="39"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L32" s="42"/>
+      <c r="L32" s="41"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="40"/>
+      <c r="L33" s="39"/>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="42"/>
+      <c r="L34" s="41"/>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="42"/>
+      <c r="L36" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4602,8 +4596,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4827,38 +4821,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -5023,35 +5017,35 @@
       <c r="N11" s="25"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="H14" s="47" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="H14" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="L14" s="47" t="s">
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="L14" s="46" t="s">
         <v>53</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="L15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="L15" s="46"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5106,7 +5100,7 @@
       <c r="F17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="36" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="8" t="s">
@@ -5115,7 +5109,7 @@
       <c r="J17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="39"/>
+      <c r="L17" s="38"/>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5137,16 +5131,16 @@
       <c r="F18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="38" t="s">
+      <c r="H18" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="38" t="s">
+      <c r="J18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="41"/>
+      <c r="L18" s="40"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -5168,16 +5162,16 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="39"/>
+      <c r="L19" s="38"/>
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -5199,14 +5193,14 @@
       <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="38" t="s">
+      <c r="H20" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="38" t="s">
+      <c r="I20" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="L20" s="41"/>
+      <c r="J20" s="37"/>
+      <c r="L20" s="40"/>
       <c r="M20"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -5228,16 +5222,16 @@
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="J21" s="37" t="s">
+      <c r="J21" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="39"/>
+      <c r="L21" s="38"/>
       <c r="M21"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -5259,16 +5253,16 @@
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="43" t="s">
+      <c r="H22" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="42" t="s">
         <v>46</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="41"/>
       <c r="M22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -5290,9 +5284,16 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="L23" s="40"/>
+      <c r="H23" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="39"/>
       <c r="M23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -5314,58 +5315,58 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="L24" s="42"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="L24" s="41"/>
       <c r="M24"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="L25" s="40"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="L25" s="39"/>
       <c r="M25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L26" s="42"/>
+      <c r="L26" s="41"/>
       <c r="M26"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L27" s="40"/>
+      <c r="L27" s="39"/>
       <c r="M27"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="42"/>
+      <c r="L28" s="41"/>
       <c r="M28"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L29" s="40"/>
+      <c r="L29" s="39"/>
       <c r="M29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L30" s="42"/>
+      <c r="L30" s="41"/>
       <c r="M30"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L31" s="40"/>
+      <c r="L31" s="39"/>
       <c r="M31"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L32" s="42"/>
+      <c r="L32" s="41"/>
       <c r="M32"/>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="L33" s="40"/>
+      <c r="L33" s="39"/>
       <c r="M33"/>
     </row>
     <row r="34" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="L34" s="42"/>
+      <c r="L34" s="41"/>
       <c r="M34"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.25">
       <c r="M35"/>
     </row>
     <row r="36" spans="8:13" x14ac:dyDescent="0.25">
-      <c r="L36" s="42"/>
+      <c r="L36" s="41"/>
       <c r="M36"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.25">
@@ -5628,38 +5629,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -5824,34 +5825,34 @@
       <c r="N11" s="25"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="H14" s="47" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="H14" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="L14" s="47" t="s">
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="L14" s="46" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="L15" s="47"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="L15" s="46"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5904,10 +5905,10 @@
       <c r="F17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="37"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="L17" s="39"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
@@ -5928,10 +5929,10 @@
       <c r="F18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="L18" s="41"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -5952,10 +5953,10 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="L19" s="39"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
@@ -5976,10 +5977,10 @@
       <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="L20" s="41"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -6000,10 +6001,10 @@
       <c r="F21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="L21" s="39"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
@@ -6024,10 +6025,10 @@
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="40"/>
-      <c r="L22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="39"/>
+      <c r="L22" s="41"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -6048,10 +6049,10 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="42"/>
-      <c r="L23" s="40"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="41"/>
+      <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
@@ -6072,45 +6073,45 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="40"/>
-      <c r="L24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="39"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="L25" s="40"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="42"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L27" s="40"/>
+      <c r="L27" s="39"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L28" s="42"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L29" s="40"/>
+      <c r="L29" s="39"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L30" s="42"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L31" s="40"/>
+      <c r="L31" s="39"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L32" s="42"/>
+      <c r="L32" s="41"/>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="40"/>
+      <c r="L33" s="39"/>
     </row>
     <row r="34" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="42"/>
+      <c r="L34" s="41"/>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="42"/>
+      <c r="L36" s="41"/>
     </row>
     <row r="37" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H37"/>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D404E17-8426-4A42-B7A3-C94B236E6D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D486A3A-37DF-4ED7-A94C-FBEB6997588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -3825,8 +3825,8 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,7 +4596,7 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D486A3A-37DF-4ED7-A94C-FBEB6997588E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC97BA9-B18D-4B75-A9F8-108135D38A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="60">
   <si>
     <t>50m Retten</t>
   </si>
@@ -357,6 +357,9 @@
   </si>
   <si>
     <t>Sondernominierung</t>
+  </si>
+  <si>
+    <t>Rian, Ramackers</t>
   </si>
 </sst>
 </file>
@@ -3825,8 +3828,8 @@
   </sheetPr>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4596,8 +4599,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5315,8 +5318,15 @@
       <c r="F24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
+      <c r="H24" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>38</v>
+      </c>
       <c r="L24" s="41"/>
       <c r="M24"/>
     </row>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC97BA9-B18D-4B75-A9F8-108135D38A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C4752-7EE5-4E7C-BF16-3445F8E3BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -359,7 +359,7 @@
     <t>Sondernominierung</t>
   </si>
   <si>
-    <t>Rian, Ramackers</t>
+    <t>Ramackers, Rian</t>
   </si>
 </sst>
 </file>
@@ -4600,7 +4600,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0C4752-7EE5-4E7C-BF16-3445F8E3BE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E23EB-AE66-4DF3-87E1-88D6DCB0C31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="59">
   <si>
     <t>50m Retten</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>Sondernominierung</t>
-  </si>
-  <si>
-    <t>Ramackers, Rian</t>
   </si>
 </sst>
 </file>
@@ -3829,7 +3826,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4330,7 +4327,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>32</v>
@@ -4420,16 +4417,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B20" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>32</v>
@@ -4451,22 +4448,22 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="8">
         <v>12</v>
       </c>
       <c r="C21" s="8">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D21" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21"/>
       <c r="H21" s="36"/>
@@ -4478,19 +4475,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C22" s="10">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D22" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>38</v>
@@ -4504,13 +4501,13 @@
         <v>30</v>
       </c>
       <c r="B23" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="8">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>32</v>
@@ -4523,24 +4520,6 @@
       <c r="L23" s="39"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="10">
-        <v>19</v>
-      </c>
-      <c r="C24" s="10">
-        <v>100</v>
-      </c>
-      <c r="D24" s="10">
-        <v>4</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
       <c r="L24" s="41"/>
@@ -4600,7 +4579,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5172,23 +5151,23 @@
         <v>46</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L19" s="38"/>
       <c r="M19"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>32</v>
@@ -5208,22 +5187,22 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8">
         <v>12</v>
       </c>
       <c r="C21" s="8">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D21" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>55</v>
@@ -5239,19 +5218,19 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C22" s="10">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D22" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>38</v>
@@ -5273,13 +5252,13 @@
         <v>39</v>
       </c>
       <c r="B23" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="8">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>32</v>
@@ -5300,33 +5279,9 @@
       <c r="M23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="10">
-        <v>19</v>
-      </c>
-      <c r="C24" s="10">
-        <v>100</v>
-      </c>
-      <c r="D24" s="10">
-        <v>4</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="I24" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>38</v>
-      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
       <c r="L24" s="41"/>
       <c r="M24"/>
     </row>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E23EB-AE66-4DF3-87E1-88D6DCB0C31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4983CF-E15A-4EAC-BA2A-53343709BAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
     <sheet name="WR-Open" sheetId="4" r:id="rId2"/>
     <sheet name="2024" sheetId="6" r:id="rId3"/>
     <sheet name="2025" sheetId="5" r:id="rId4"/>
-    <sheet name="2026" sheetId="7" r:id="rId5"/>
+    <sheet name="2026" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -161,7 +161,7 @@
     <author>Jan-Philipp Gnad</author>
   </authors>
   <commentList>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{5CCD82D8-083B-4385-8F59-F93295BBC0B9}">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{F14AB4F1-B4DA-46F5-AEC4-F05A48CE2F70}">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="56">
   <si>
     <t>50m Retten</t>
   </si>
@@ -306,15 +306,6 @@
   </si>
   <si>
     <t>DMM - 2025</t>
-  </si>
-  <si>
-    <t>LMS - 2026</t>
-  </si>
-  <si>
-    <t>DEM - 2026</t>
-  </si>
-  <si>
-    <t>DMM - 2026</t>
   </si>
   <si>
     <t>Gnad, Johanna</t>
@@ -3823,10 +3814,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4256,12 +4247,12 @@
       <c r="F14" s="44"/>
       <c r="G14"/>
       <c r="H14" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="L14" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -4302,16 +4293,16 @@
       </c>
       <c r="G16"/>
       <c r="H16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -4337,15 +4328,17 @@
       </c>
       <c r="G17"/>
       <c r="H17" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="38"/>
+      <c r="L17" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
     </row>
@@ -4370,15 +4363,15 @@
       </c>
       <c r="G18"/>
       <c r="H18" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="40"/>
+      <c r="L18" s="36"/>
       <c r="M18"/>
       <c r="N18"/>
     </row>
@@ -4403,15 +4396,15 @@
       </c>
       <c r="G19"/>
       <c r="H19" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="37"/>
       <c r="M19"/>
       <c r="N19"/>
     </row>
@@ -4436,13 +4429,13 @@
       </c>
       <c r="G20"/>
       <c r="H20" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J20" s="37"/>
-      <c r="L20" s="40"/>
+      <c r="L20" s="36"/>
       <c r="M20"/>
       <c r="N20"/>
     </row>
@@ -4469,7 +4462,7 @@
       <c r="H21" s="36"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
-      <c r="L21" s="38"/>
+      <c r="L21" s="37"/>
       <c r="M21"/>
       <c r="N21"/>
     </row>
@@ -4494,7 +4487,7 @@
       </c>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="L22" s="41"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
@@ -4517,47 +4510,53 @@
       </c>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="L23" s="39"/>
+      <c r="L23" s="42"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="L24" s="41"/>
+      <c r="L24" s="43"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="L25" s="39"/>
+      <c r="L25" s="42"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L26" s="41"/>
+      <c r="L26" s="43"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L27" s="39"/>
+      <c r="L27" s="42"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L28" s="41"/>
+      <c r="L28" s="43"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L29" s="39"/>
+      <c r="L29" s="42"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L30" s="41"/>
+      <c r="L30" s="43"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L31" s="39"/>
+      <c r="L31" s="42"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L32" s="41"/>
+      <c r="L32" s="43"/>
     </row>
     <row r="33" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L33" s="39"/>
+      <c r="L33" s="42"/>
     </row>
     <row r="34" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L34" s="41"/>
+      <c r="L34" s="43"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="35"/>
     </row>
     <row r="36" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L36" s="41"/>
+      <c r="L36" s="43"/>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4578,8 +4577,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5008,12 +5007,12 @@
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
       <c r="H14" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="L14" s="46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M14"/>
     </row>
@@ -5050,16 +5049,16 @@
         <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="M16"/>
     </row>
@@ -5083,15 +5082,17 @@
         <v>37</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="38"/>
+      <c r="L17" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -5114,10 +5115,10 @@
         <v>37</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>38</v>
@@ -5145,10 +5146,10 @@
         <v>37</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>38</v>
@@ -5176,10 +5177,10 @@
         <v>37</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J20" s="37"/>
       <c r="L20" s="40"/>
@@ -5205,10 +5206,10 @@
         <v>38</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>37</v>
@@ -5236,10 +5237,10 @@
         <v>38</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>37</v>
@@ -5267,10 +5268,10 @@
         <v>38</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J23" s="43" t="s">
         <v>37</v>
@@ -5366,11 +5367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EDE853-0977-425B-964D-7249E4F0A6C8}">
-  <dimension ref="A1:N41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453761C1-FFCA-45E5-8C71-AB7C914C935B}">
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5487,54 +5488,54 @@
       </c>
       <c r="B3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>42.7</v>
+        <v>43.12</v>
       </c>
       <c r="C3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
-        <v>63.01</v>
+        <v>63.63</v>
       </c>
       <c r="D3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(D$1))*86400,2)</f>
-        <v>88.26</v>
+        <v>89.13</v>
       </c>
       <c r="E3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(E$1))*86400,2)</f>
-        <v>72.92</v>
+        <v>73.63</v>
       </c>
       <c r="F3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(F$1))*86400,2)</f>
-        <v>181.75</v>
+        <v>183.53</v>
       </c>
       <c r="G3" s="30">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(G$1))*86400,2)</f>
-        <v>158.25</v>
+        <v>159.79</v>
       </c>
       <c r="H3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(H$1))*86400,2)</f>
-        <v>36.89</v>
+        <v>37.25</v>
       </c>
       <c r="I3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(I$1))*86400,2)</f>
-        <v>58.14</v>
+        <v>58.71</v>
       </c>
       <c r="J3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(J$1))*86400,2)</f>
-        <v>76.180000000000007</v>
+        <v>76.92</v>
       </c>
       <c r="K3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(K$1))*86400,2)</f>
-        <v>63.88</v>
+        <v>64.5</v>
       </c>
       <c r="L3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(L$1))*86400,2)</f>
-        <v>162.31</v>
+        <v>163.9</v>
       </c>
       <c r="M3" s="19">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(M$1))*86400,2)</f>
-        <v>149.12</v>
+        <v>150.57</v>
       </c>
       <c r="N3" s="2">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5687,51 +5688,51 @@
       </c>
       <c r="B10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0:42,70</v>
+        <v>0:43,12</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:03,01</v>
+        <v>1:03,63</v>
       </c>
       <c r="D10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:28,26</v>
+        <v>1:29,13</v>
       </c>
       <c r="E10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:12,92</v>
+        <v>1:13,63</v>
       </c>
       <c r="F10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>3:01,75</v>
+        <v>3:03,53</v>
       </c>
       <c r="G10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>2:38,25</v>
+        <v>2:39,79</v>
       </c>
       <c r="H10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0:36,89</v>
+        <v>0:37,25</v>
       </c>
       <c r="I10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0:58,14</v>
+        <v>0:58,71</v>
       </c>
       <c r="J10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:16,18</v>
+        <v>1:16,92</v>
       </c>
       <c r="K10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>1:03,88</v>
+        <v>1:04,50</v>
       </c>
       <c r="L10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>2:42,31</v>
+        <v>2:43,90</v>
       </c>
       <c r="M10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>2:29,12</v>
+        <v>2:30,57</v>
       </c>
       <c r="N10" s="23"/>
     </row>
@@ -5799,13 +5800,14 @@
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
       <c r="H14" s="46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
       <c r="L14" s="46" t="s">
-        <v>53</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
@@ -5818,6 +5820,7 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="L15" s="46"/>
+      <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -5839,21 +5842,22 @@
         <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="8">
         <v>15</v>
@@ -5870,14 +5874,23 @@
       <c r="F17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="L17" s="38"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H17" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B18" s="10">
         <v>13</v>
@@ -5894,14 +5907,21 @@
       <c r="F18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="H18" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="L18" s="40"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B19" s="8">
         <v>12</v>
@@ -5918,23 +5938,30 @@
       <c r="F19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="H19" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>32</v>
@@ -5942,71 +5969,90 @@
       <c r="F20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
+      <c r="H20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" s="37" t="s">
+        <v>48</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="L20" s="40"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B21" s="8">
         <v>12</v>
       </c>
       <c r="C21" s="8">
+        <v>100</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="38"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="10">
+        <v>17</v>
+      </c>
+      <c r="C22" s="10">
         <v>18</v>
       </c>
-      <c r="D21" s="8">
-        <v>10</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="L21" s="38"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="10">
-        <v>12</v>
-      </c>
-      <c r="C22" s="10">
-        <v>100</v>
-      </c>
-      <c r="D22" s="10">
-        <v>8</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="39"/>
+      <c r="H22" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="L22" s="41"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B23" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C23" s="8">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D23" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>32</v>
@@ -6016,102 +6062,84 @@
       </c>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
-      <c r="J23" s="41"/>
+      <c r="J23" s="43"/>
       <c r="L23" s="39"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="10">
-        <v>19</v>
-      </c>
-      <c r="C24" s="10">
-        <v>100</v>
-      </c>
-      <c r="D24" s="10">
-        <v>4</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="M23"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
-      <c r="J24" s="39"/>
+      <c r="J24" s="42"/>
       <c r="L24" s="41"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="L25" s="39"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L26" s="41"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L27" s="39"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L28" s="41"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L29" s="39"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L30" s="41"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L31" s="39"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L32" s="41"/>
-    </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M32"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L33" s="39"/>
-    </row>
-    <row r="34" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M33"/>
+    </row>
+    <row r="34" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L34" s="41"/>
-    </row>
-    <row r="36" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M34"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M35"/>
+    </row>
+    <row r="36" spans="8:13" x14ac:dyDescent="0.25">
       <c r="L36" s="41"/>
-    </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H37"/>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-    </row>
-    <row r="38" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M36"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.25">
+      <c r="M37"/>
+    </row>
+    <row r="38" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
-    </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="M38"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.25">
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
-    </row>
-    <row r="40" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-    </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.25">
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
+      <c r="M39"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4983CF-E15A-4EAC-BA2A-53343709BAB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4790CAF1-240D-4E94-92D8-B6C7DBF8FC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -4577,8 +4577,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5228,7 +5228,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>32</v>
@@ -5370,8 +5370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453761C1-FFCA-45E5-8C71-AB7C914C935B}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4790CAF1-240D-4E94-92D8-B6C7DBF8FC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545DA67-96E2-4F93-A6D6-31AA7848DC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -4578,7 +4578,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5228,7 +5228,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>32</v>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C545DA67-96E2-4F93-A6D6-31AA7848DC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492106A-17AE-4076-B487-0C791329C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <author>Jan-Philipp Gnad</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F74333A4-7421-4CB9-A1B8-AA480385FE5D}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{F74333A4-7421-4CB9-A1B8-AA480385FE5D}">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
     <author>Jan-Philipp Gnad</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{97E9E9C9-A5B3-4B37-ACF2-E9185EE1ABEB}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{97E9E9C9-A5B3-4B37-ACF2-E9185EE1ABEB}">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="85">
   <si>
     <t>50m Retten</t>
   </si>
@@ -348,6 +348,93 @@
   </si>
   <si>
     <t>Sondernominierung</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Competiton</t>
+  </si>
+  <si>
+    <t>Nation</t>
+  </si>
+  <si>
+    <t>Zoe PEDERSEN</t>
+  </si>
+  <si>
+    <t>Aon-NZPRC-2025</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>Lucreza FABRETTI</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>LWC-2024</t>
+  </si>
+  <si>
+    <t>Melissa GIORDANO</t>
+  </si>
+  <si>
+    <t>Bianca RAYWARD</t>
+  </si>
+  <si>
+    <t>Battle of Tasman-2025</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Giulia VETRANO</t>
+  </si>
+  <si>
+    <t>Giovanni MASTRORILLI</t>
+  </si>
+  <si>
+    <t>Orange Cup-2024</t>
+  </si>
+  <si>
+    <t>Alicante-2024</t>
+  </si>
+  <si>
+    <t>Riccione-2022</t>
+  </si>
+  <si>
+    <t>Riccione-2024</t>
+  </si>
+  <si>
+    <t>Riccione-2019</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Simone LOCCHI</t>
+  </si>
+  <si>
+    <t>German Cup-2022</t>
+  </si>
+  <si>
+    <t>Jaime IRUESTE ROJO</t>
+  </si>
+  <si>
+    <t>Alberto TURRADO</t>
+  </si>
+  <si>
+    <t>Torrevieja-2021</t>
+  </si>
+  <si>
+    <t>Davide CREMONINI</t>
+  </si>
+  <si>
+    <t>Zac REID</t>
+  </si>
+  <si>
+    <t>LWC-2018</t>
   </si>
 </sst>
 </file>
@@ -357,7 +444,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m:ss.00"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +502,37 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="6"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -563,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -691,6 +809,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1425,12 +1555,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A1:M28" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
-  <autoFilter ref="A1:M28" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}" name="WR_Youth" displayName="WR_Youth" ref="A4:M31" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29">
+  <autoFilter ref="A4:M31" xr:uid="{4234D44E-A2BE-4790-B589-1A8CC19B714E}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="28">
-      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{848E691A-41B0-42DD-B122-FB6DF43CB3EF}" name="WR-Youth" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{2FE43F18-485B-46A9-8946-FBC5FDAE5A8E}" name="50m Retten" dataDxfId="27"/>
     <tableColumn id="3" xr3:uid="{CA5C3ABF-02E6-442B-868B-95B293B231D3}" name="100m Retten" dataDxfId="26"/>
     <tableColumn id="4" xr3:uid="{7A6BBA52-2145-464D-8C04-B2CCFC1A90DC}" name="100m Kombi" dataDxfId="25"/>
@@ -1449,11 +1577,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A1:M28" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
-  <autoFilter ref="A1:M28" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}" name="WR_Open" displayName="WR_Open" ref="A4:M31" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A4:M31" xr:uid="{E2D2F97B-7645-4066-8AB3-F35CF6E035EB}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{AE73402B-B27E-4B29-8DCF-30B7FC1855EF}" name="WR-Open" dataDxfId="12">
-      <calculatedColumnFormula>A1+1</calculatedColumnFormula>
+      <calculatedColumnFormula>A4+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{EA3EAC1F-184E-4A28-B3E3-08DE12F138EF}" name="50m Retten" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{E0305A3F-6087-4F8C-8B64-153E1ACAA32E}" name="100m Retten" dataDxfId="10"/>
@@ -1789,10 +1917,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB2B168-68B3-410F-B4A6-8D511F9C32E0}">
-  <dimension ref="A1:M28"/>
+  <sheetPr codeName="Tabelle1"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,829 +1934,952 @@
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <f t="shared" ref="A3:A28" si="0">A2+1</f>
-        <v>2001</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>2002</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>2003</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
+        <v>2000</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>2004</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+        <f t="shared" ref="A6:A31" si="0">A5+1</f>
+        <v>2001</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
-        <v>2005</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+        <v>2002</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
-        <v>2006</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+        <v>2003</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
-        <v>2007</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+        <v>2004</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
-        <v>2008</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+        <v>2005</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
-        <v>2009</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+        <v>2006</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
-        <v>2010</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+        <v>2007</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
-        <v>2011</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+        <v>2008</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
-        <v>2012</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+        <v>2009</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
-        <v>2013</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+        <v>2010</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
-        <v>2014</v>
-      </c>
-      <c r="B16" s="13">
-        <v>4.3194444444444443E-4</v>
-      </c>
-      <c r="C16" s="13">
-        <v>6.5798611111111103E-4</v>
-      </c>
-      <c r="D16" s="13">
-        <v>8.4861111111111107E-4</v>
-      </c>
-      <c r="E16" s="13">
-        <v>7.0185185185185183E-4</v>
-      </c>
-      <c r="F16" s="13">
-        <v>1.7334490740740739E-3</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1.4596064814814816E-3</v>
-      </c>
-      <c r="H16" s="13">
-        <v>3.6018518518518523E-4</v>
-      </c>
-      <c r="I16" s="13">
-        <v>5.5081018518518521E-4</v>
-      </c>
-      <c r="J16" s="13">
-        <v>7.3599537037037036E-4</v>
-      </c>
-      <c r="K16" s="13">
-        <v>6.2881944444444443E-4</v>
-      </c>
-      <c r="L16" s="13">
-        <v>1.5302083333333333E-3</v>
-      </c>
-      <c r="M16" s="13">
-        <v>1.3592592592592591E-3</v>
-      </c>
+        <v>2011</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
-        <v>2015</v>
-      </c>
-      <c r="B17" s="12">
-        <v>4.1574074074074077E-4</v>
-      </c>
-      <c r="C17" s="12">
-        <v>6.4398148148148149E-4</v>
-      </c>
-      <c r="D17" s="12">
-        <v>8.4861111111111107E-4</v>
-      </c>
-      <c r="E17" s="12">
-        <v>7.0185185185185183E-4</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1.7334490740740739E-3</v>
-      </c>
-      <c r="G17" s="14">
-        <v>1.4596064814814816E-3</v>
-      </c>
-      <c r="H17" s="12">
-        <v>3.4456018518518516E-4</v>
-      </c>
-      <c r="I17" s="12">
-        <v>5.4108796296296294E-4</v>
-      </c>
-      <c r="J17" s="12">
-        <v>7.1898148148148158E-4</v>
-      </c>
-      <c r="K17" s="12">
-        <v>6.0405092592592596E-4</v>
-      </c>
-      <c r="L17" s="12">
-        <v>1.5302083333333333E-3</v>
-      </c>
-      <c r="M17" s="12">
-        <v>1.3592592592592591E-3</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
-        <v>2016</v>
-      </c>
-      <c r="B18" s="13">
-        <v>3.9884259259259262E-4</v>
-      </c>
-      <c r="C18" s="13">
-        <v>6.4039351851851855E-4</v>
-      </c>
-      <c r="D18" s="13">
-        <v>8.4398148148148158E-4</v>
-      </c>
-      <c r="E18" s="13">
-        <v>6.9409722222222225E-4</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1.7334490740740739E-3</v>
-      </c>
-      <c r="G18" s="15">
-        <v>1.4596064814814816E-3</v>
-      </c>
-      <c r="H18" s="13">
-        <v>3.4456018518518516E-4</v>
-      </c>
-      <c r="I18" s="13">
-        <v>5.4108796296296294E-4</v>
-      </c>
-      <c r="J18" s="13">
-        <v>7.1898148148148158E-4</v>
-      </c>
-      <c r="K18" s="13">
-        <v>6.0405092592592596E-4</v>
-      </c>
-      <c r="L18" s="13">
-        <v>1.5229166666666666E-3</v>
-      </c>
-      <c r="M18" s="13">
-        <v>1.3577546296296298E-3</v>
-      </c>
+        <v>2013</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="B19" s="12">
-        <v>3.9884259259259262E-4</v>
-      </c>
-      <c r="C19" s="12">
-        <v>6.041666666666667E-4</v>
-      </c>
-      <c r="D19" s="12">
-        <v>8.3888888888888891E-4</v>
-      </c>
-      <c r="E19" s="12">
-        <v>6.887731481481481E-4</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1.7063657407407407E-3</v>
-      </c>
-      <c r="G19" s="14">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="13">
+        <v>4.3194444444444443E-4</v>
+      </c>
+      <c r="C19" s="13">
+        <v>6.5798611111111103E-4</v>
+      </c>
+      <c r="D19" s="13">
+        <v>8.4861111111111107E-4</v>
+      </c>
+      <c r="E19" s="13">
+        <v>7.0185185185185183E-4</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.7334490740740739E-3</v>
+      </c>
+      <c r="G19" s="15">
         <v>1.4596064814814816E-3</v>
       </c>
-      <c r="H19" s="12">
-        <v>3.4456018518518516E-4</v>
-      </c>
-      <c r="I19" s="12">
-        <v>5.4108796296296294E-4</v>
-      </c>
-      <c r="J19" s="12">
-        <v>7.1898148148148158E-4</v>
-      </c>
-      <c r="K19" s="12">
-        <v>6.0405092592592596E-4</v>
-      </c>
-      <c r="L19" s="12">
-        <v>1.5229166666666666E-3</v>
-      </c>
-      <c r="M19" s="12">
-        <v>1.3577546296296298E-3</v>
+      <c r="H19" s="13">
+        <v>3.6018518518518523E-4</v>
+      </c>
+      <c r="I19" s="13">
+        <v>5.5081018518518521E-4</v>
+      </c>
+      <c r="J19" s="13">
+        <v>7.3599537037037036E-4</v>
+      </c>
+      <c r="K19" s="13">
+        <v>6.2881944444444443E-4</v>
+      </c>
+      <c r="L19" s="13">
+        <v>1.5302083333333333E-3</v>
+      </c>
+      <c r="M19" s="13">
+        <v>1.3592592592592591E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="B20" s="13">
-        <v>3.9884259259259262E-4</v>
-      </c>
-      <c r="C20" s="13">
-        <v>5.836805555555556E-4</v>
-      </c>
-      <c r="D20" s="13">
-        <v>8.1261574074074081E-4</v>
-      </c>
-      <c r="E20" s="13">
-        <v>6.887731481481481E-4</v>
-      </c>
-      <c r="F20" s="13">
-        <v>1.665162037037037E-3</v>
-      </c>
-      <c r="G20" s="15">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="12">
+        <v>4.1574074074074077E-4</v>
+      </c>
+      <c r="C20" s="12">
+        <v>6.4398148148148149E-4</v>
+      </c>
+      <c r="D20" s="12">
+        <v>8.4861111111111107E-4</v>
+      </c>
+      <c r="E20" s="12">
+        <v>7.0185185185185183E-4</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1.7334490740740739E-3</v>
+      </c>
+      <c r="G20" s="14">
         <v>1.4596064814814816E-3</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>3.4456018518518516E-4</v>
       </c>
-      <c r="I20" s="13">
-        <v>5.3310185185185188E-4</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="I20" s="12">
+        <v>5.4108796296296294E-4</v>
+      </c>
+      <c r="J20" s="12">
         <v>7.1898148148148158E-4</v>
       </c>
-      <c r="K20" s="13">
+      <c r="K20" s="12">
         <v>6.0405092592592596E-4</v>
       </c>
-      <c r="L20" s="13">
-        <v>1.5229166666666666E-3</v>
-      </c>
-      <c r="M20" s="13">
-        <v>1.3511574074074075E-3</v>
+      <c r="L20" s="12">
+        <v>1.5302083333333333E-3</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1.3592592592592591E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="B21" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="13">
         <v>3.9884259259259262E-4</v>
       </c>
-      <c r="C21" s="12">
-        <v>5.7094907407407409E-4</v>
-      </c>
-      <c r="D21" s="12">
-        <v>8.1261574074074081E-4</v>
-      </c>
-      <c r="E21" s="12">
-        <v>6.8321759259259258E-4</v>
-      </c>
-      <c r="F21" s="12">
-        <v>1.647222222222222E-3</v>
-      </c>
-      <c r="G21" s="14">
+      <c r="C21" s="13">
+        <v>6.4039351851851855E-4</v>
+      </c>
+      <c r="D21" s="13">
+        <v>8.4398148148148158E-4</v>
+      </c>
+      <c r="E21" s="13">
+        <v>6.9409722222222225E-4</v>
+      </c>
+      <c r="F21" s="13">
+        <v>1.7334490740740739E-3</v>
+      </c>
+      <c r="G21" s="15">
         <v>1.4596064814814816E-3</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="13">
         <v>3.4456018518518516E-4</v>
       </c>
-      <c r="I21" s="12">
-        <v>5.3194444444444448E-4</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="I21" s="13">
+        <v>5.4108796296296294E-4</v>
+      </c>
+      <c r="J21" s="13">
         <v>7.1898148148148158E-4</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="13">
         <v>6.0405092592592596E-4</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="13">
         <v>1.5229166666666666E-3</v>
       </c>
-      <c r="M21" s="12">
-        <v>1.3511574074074075E-3</v>
+      <c r="M21" s="13">
+        <v>1.3577546296296298E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B22" s="13">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="12">
         <v>3.9884259259259262E-4</v>
       </c>
-      <c r="C22" s="13">
-        <v>5.7094907407407409E-4</v>
-      </c>
-      <c r="D22" s="13">
-        <v>8.1261574074074081E-4</v>
-      </c>
-      <c r="E22" s="13">
-        <v>6.8321759259259258E-4</v>
-      </c>
-      <c r="F22" s="13">
-        <v>1.647222222222222E-3</v>
-      </c>
-      <c r="G22" s="15">
+      <c r="C22" s="12">
+        <v>6.041666666666667E-4</v>
+      </c>
+      <c r="D22" s="12">
+        <v>8.3888888888888891E-4</v>
+      </c>
+      <c r="E22" s="12">
+        <v>6.887731481481481E-4</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1.7063657407407407E-3</v>
+      </c>
+      <c r="G22" s="14">
         <v>1.4596064814814816E-3</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>3.4456018518518516E-4</v>
       </c>
-      <c r="I22" s="13">
-        <v>5.3194444444444448E-4</v>
-      </c>
-      <c r="J22" s="13">
+      <c r="I22" s="12">
+        <v>5.4108796296296294E-4</v>
+      </c>
+      <c r="J22" s="12">
         <v>7.1898148148148158E-4</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>6.0405092592592596E-4</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <v>1.5229166666666666E-3</v>
       </c>
-      <c r="M22" s="13">
-        <v>1.3511574074074075E-3</v>
+      <c r="M22" s="12">
+        <v>1.3577546296296298E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B23" s="12">
-        <v>3.9398148148148148E-4</v>
-      </c>
-      <c r="C23" s="12">
-        <v>5.7094907407407409E-4</v>
-      </c>
-      <c r="D23" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="13">
+        <v>3.9884259259259262E-4</v>
+      </c>
+      <c r="C23" s="13">
+        <v>5.836805555555556E-4</v>
+      </c>
+      <c r="D23" s="13">
         <v>8.1261574074074081E-4</v>
       </c>
-      <c r="E23" s="12">
-        <v>6.7870370370370383E-4</v>
-      </c>
-      <c r="F23" s="12">
-        <v>1.647222222222222E-3</v>
-      </c>
-      <c r="G23" s="14">
-        <v>1.4388888888888889E-3</v>
-      </c>
-      <c r="H23" s="12">
-        <v>3.4224537037037036E-4</v>
-      </c>
-      <c r="I23" s="12">
-        <v>5.3194444444444448E-4</v>
-      </c>
-      <c r="J23" s="12">
-        <v>7.0277777777777775E-4</v>
-      </c>
-      <c r="K23" s="12">
-        <v>5.7881944444444441E-4</v>
-      </c>
-      <c r="L23" s="12">
-        <v>1.5097222222222222E-3</v>
-      </c>
-      <c r="M23" s="12">
+      <c r="E23" s="13">
+        <v>6.887731481481481E-4</v>
+      </c>
+      <c r="F23" s="13">
+        <v>1.665162037037037E-3</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1.4596064814814816E-3</v>
+      </c>
+      <c r="H23" s="13">
+        <v>3.4456018518518516E-4</v>
+      </c>
+      <c r="I23" s="13">
+        <v>5.3310185185185188E-4</v>
+      </c>
+      <c r="J23" s="13">
+        <v>7.1898148148148158E-4</v>
+      </c>
+      <c r="K23" s="13">
+        <v>6.0405092592592596E-4</v>
+      </c>
+      <c r="L23" s="13">
+        <v>1.5229166666666666E-3</v>
+      </c>
+      <c r="M23" s="13">
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B24" s="13">
-        <v>3.9398148148148148E-4</v>
-      </c>
-      <c r="C24" s="13">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="12">
+        <v>3.9884259259259262E-4</v>
+      </c>
+      <c r="C24" s="12">
         <v>5.7094907407407409E-4</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>8.1261574074074081E-4</v>
       </c>
-      <c r="E24" s="13">
-        <v>6.7719907407407399E-4</v>
-      </c>
-      <c r="F24" s="13">
+      <c r="E24" s="12">
+        <v>6.8321759259259258E-4</v>
+      </c>
+      <c r="F24" s="12">
         <v>1.647222222222222E-3</v>
       </c>
-      <c r="G24" s="15">
-        <v>1.4339120370370371E-3</v>
-      </c>
-      <c r="H24" s="13">
-        <v>3.3807870370370372E-4</v>
-      </c>
-      <c r="I24" s="13">
+      <c r="G24" s="14">
+        <v>1.4596064814814816E-3</v>
+      </c>
+      <c r="H24" s="12">
+        <v>3.4456018518518516E-4</v>
+      </c>
+      <c r="I24" s="12">
         <v>5.3194444444444448E-4</v>
       </c>
-      <c r="J24" s="13">
-        <v>6.9027777777777783E-4</v>
-      </c>
-      <c r="K24" s="13">
-        <v>5.7881944444444441E-4</v>
-      </c>
-      <c r="L24" s="13">
-        <v>1.4707175925925927E-3</v>
-      </c>
-      <c r="M24" s="13">
+      <c r="J24" s="12">
+        <v>7.1898148148148158E-4</v>
+      </c>
+      <c r="K24" s="12">
+        <v>6.0405092592592596E-4</v>
+      </c>
+      <c r="L24" s="12">
+        <v>1.5229166666666666E-3</v>
+      </c>
+      <c r="M24" s="12">
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B25" s="12">
-        <v>3.8692129629629629E-4</v>
-      </c>
-      <c r="C25" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="13">
+        <v>3.9884259259259262E-4</v>
+      </c>
+      <c r="C25" s="13">
         <v>5.7094907407407409E-4</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="13">
         <v>8.1261574074074081E-4</v>
       </c>
-      <c r="E25" s="12">
-        <v>6.613425925925926E-4</v>
-      </c>
-      <c r="F25" s="12">
+      <c r="E25" s="13">
+        <v>6.8321759259259258E-4</v>
+      </c>
+      <c r="F25" s="13">
         <v>1.647222222222222E-3</v>
       </c>
-      <c r="G25" s="14">
-        <v>1.4339120370370371E-3</v>
-      </c>
-      <c r="H25" s="12">
-        <v>3.3807870370370372E-4</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="G25" s="15">
+        <v>1.4596064814814816E-3</v>
+      </c>
+      <c r="H25" s="13">
+        <v>3.4456018518518516E-4</v>
+      </c>
+      <c r="I25" s="13">
         <v>5.3194444444444448E-4</v>
       </c>
-      <c r="J25" s="12">
-        <v>6.9027777777777783E-4</v>
-      </c>
-      <c r="K25" s="12">
-        <v>5.7881944444444441E-4</v>
-      </c>
-      <c r="L25" s="12">
-        <v>1.4707175925925927E-3</v>
-      </c>
-      <c r="M25" s="12">
+      <c r="J25" s="13">
+        <v>7.1898148148148158E-4</v>
+      </c>
+      <c r="K25" s="13">
+        <v>6.0405092592592596E-4</v>
+      </c>
+      <c r="L25" s="13">
+        <v>1.5229166666666666E-3</v>
+      </c>
+      <c r="M25" s="13">
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="B26" s="13">
-        <v>3.8692129629629629E-4</v>
-      </c>
-      <c r="C26" s="13">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="12">
+        <v>3.9398148148148148E-4</v>
+      </c>
+      <c r="C26" s="12">
         <v>5.7094907407407409E-4</v>
       </c>
-      <c r="D26" s="13">
-        <v>7.9976851851851845E-4</v>
-      </c>
-      <c r="E26" s="13">
-        <v>6.607638888888889E-4</v>
-      </c>
-      <c r="F26" s="13">
+      <c r="D26" s="12">
+        <v>8.1261574074074081E-4</v>
+      </c>
+      <c r="E26" s="12">
+        <v>6.7870370370370383E-4</v>
+      </c>
+      <c r="F26" s="12">
         <v>1.647222222222222E-3</v>
       </c>
-      <c r="G26" s="15">
-        <v>1.4339120370370371E-3</v>
-      </c>
-      <c r="H26" s="13">
-        <v>3.3425925925925924E-4</v>
-      </c>
-      <c r="I26" s="13">
-        <v>5.2685185185185192E-4</v>
-      </c>
-      <c r="J26" s="13">
-        <v>6.9027777777777783E-4</v>
-      </c>
-      <c r="K26" s="13">
+      <c r="G26" s="14">
+        <v>1.4388888888888889E-3</v>
+      </c>
+      <c r="H26" s="12">
+        <v>3.4224537037037036E-4</v>
+      </c>
+      <c r="I26" s="12">
+        <v>5.3194444444444448E-4</v>
+      </c>
+      <c r="J26" s="12">
+        <v>7.0277777777777775E-4</v>
+      </c>
+      <c r="K26" s="12">
         <v>5.7881944444444441E-4</v>
       </c>
-      <c r="L26" s="13">
-        <v>1.4707175925925927E-3</v>
-      </c>
-      <c r="M26" s="13">
+      <c r="L26" s="12">
+        <v>1.5097222222222222E-3</v>
+      </c>
+      <c r="M26" s="12">
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="B27" s="12">
-        <v>3.8692129629629629E-4</v>
-      </c>
-      <c r="C27" s="12">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="13">
+        <v>3.9398148148148148E-4</v>
+      </c>
+      <c r="C27" s="13">
         <v>5.7094907407407409E-4</v>
       </c>
-      <c r="D27" s="12">
-        <v>7.9976851851851845E-4</v>
-      </c>
-      <c r="E27" s="12">
-        <v>6.607638888888889E-4</v>
-      </c>
-      <c r="F27" s="12">
-        <v>1.6468749999999999E-3</v>
-      </c>
-      <c r="G27" s="14">
+      <c r="D27" s="13">
+        <v>8.1261574074074081E-4</v>
+      </c>
+      <c r="E27" s="13">
+        <v>6.7719907407407399E-4</v>
+      </c>
+      <c r="F27" s="13">
+        <v>1.647222222222222E-3</v>
+      </c>
+      <c r="G27" s="15">
         <v>1.4339120370370371E-3</v>
       </c>
-      <c r="H27" s="12">
-        <v>3.3425925925925924E-4</v>
-      </c>
-      <c r="I27" s="12">
-        <v>5.2685185185185192E-4</v>
-      </c>
-      <c r="J27" s="12">
+      <c r="H27" s="13">
+        <v>3.3807870370370372E-4</v>
+      </c>
+      <c r="I27" s="13">
+        <v>5.3194444444444448E-4</v>
+      </c>
+      <c r="J27" s="13">
         <v>6.9027777777777783E-4</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="13">
         <v>5.7881944444444441E-4</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="13">
         <v>1.4707175925925927E-3</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="13">
         <v>1.3511574074074075E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B28" s="12">
+        <v>3.8692129629629629E-4</v>
+      </c>
+      <c r="C28" s="12">
+        <v>5.7094907407407409E-4</v>
+      </c>
+      <c r="D28" s="12">
+        <v>8.1261574074074081E-4</v>
+      </c>
+      <c r="E28" s="12">
+        <v>6.613425925925926E-4</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1.647222222222222E-3</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1.4339120370370371E-3</v>
+      </c>
+      <c r="H28" s="12">
+        <v>3.3807870370370372E-4</v>
+      </c>
+      <c r="I28" s="12">
+        <v>5.3194444444444448E-4</v>
+      </c>
+      <c r="J28" s="12">
+        <v>6.9027777777777783E-4</v>
+      </c>
+      <c r="K28" s="12">
+        <v>5.7881944444444441E-4</v>
+      </c>
+      <c r="L28" s="12">
+        <v>1.4707175925925927E-3</v>
+      </c>
+      <c r="M28" s="12">
+        <v>1.3511574074074075E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B29" s="13">
+        <v>3.8692129629629629E-4</v>
+      </c>
+      <c r="C29" s="13">
+        <v>5.7094907407407409E-4</v>
+      </c>
+      <c r="D29" s="13">
+        <v>7.9976851851851845E-4</v>
+      </c>
+      <c r="E29" s="13">
+        <v>6.607638888888889E-4</v>
+      </c>
+      <c r="F29" s="13">
+        <v>1.647222222222222E-3</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1.4339120370370371E-3</v>
+      </c>
+      <c r="H29" s="13">
+        <v>3.3425925925925924E-4</v>
+      </c>
+      <c r="I29" s="13">
+        <v>5.2685185185185192E-4</v>
+      </c>
+      <c r="J29" s="13">
+        <v>6.9027777777777783E-4</v>
+      </c>
+      <c r="K29" s="13">
+        <v>5.7881944444444441E-4</v>
+      </c>
+      <c r="L29" s="13">
+        <v>1.4707175925925927E-3</v>
+      </c>
+      <c r="M29" s="13">
+        <v>1.3511574074074075E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B30" s="12">
+        <v>3.8287037037037033E-4</v>
+      </c>
+      <c r="C30" s="12">
+        <v>5.7094907407407409E-4</v>
+      </c>
+      <c r="D30" s="12">
+        <v>7.9976851851851845E-4</v>
+      </c>
+      <c r="E30" s="12">
+        <v>6.607638888888889E-4</v>
+      </c>
+      <c r="F30" s="12">
+        <v>1.6468749999999999E-3</v>
+      </c>
+      <c r="G30" s="14">
+        <v>1.4339120370370371E-3</v>
+      </c>
+      <c r="H30" s="12">
+        <v>3.3425925925925924E-4</v>
+      </c>
+      <c r="I30" s="12">
+        <v>5.2685185185185192E-4</v>
+      </c>
+      <c r="J30" s="12">
+        <v>6.9027777777777783E-4</v>
+      </c>
+      <c r="K30" s="12">
+        <v>5.7881944444444441E-4</v>
+      </c>
+      <c r="L30" s="12">
+        <v>1.4707175925925927E-3</v>
+      </c>
+      <c r="M30" s="12">
+        <v>1.3511574074074075E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G28">
+  <conditionalFormatting sqref="B5:G31">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>B2&lt;&gt;B1</formula>
+      <formula>B5&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:M28">
+  <conditionalFormatting sqref="H5:M31">
     <cfRule type="expression" dxfId="2" priority="2">
-      <formula>H2&lt;&gt;H1</formula>
+      <formula>H5&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2640,10 +2892,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5FFB6C-7DEA-4C95-82B5-1769BD3934D8}">
-  <dimension ref="A1:M28"/>
+  <sheetPr codeName="Tabelle2"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B1" sqref="B1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,1149 +2909,1200 @@
     <col min="13" max="13" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12">
-        <v>7.0497685185185192E-4</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12">
-        <v>7.3368055555555556E-4</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="14">
-        <v>1.5353009259259261E-3</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12">
-        <v>6.0335648148148152E-4</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12">
-        <v>6.4687499999999999E-4</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12">
-        <v>1.3629629629629632E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <f t="shared" ref="A3:A28" si="0">A2+1</f>
-        <v>2001</v>
-      </c>
-      <c r="B3" s="13">
-        <v>4.5000000000000004E-4</v>
-      </c>
-      <c r="C3" s="13">
-        <v>6.864583333333333E-4</v>
-      </c>
-      <c r="D3" s="13">
-        <v>9.1134259259259261E-4</v>
-      </c>
-      <c r="E3" s="13">
-        <v>7.3368055555555556E-4</v>
-      </c>
-      <c r="F3" s="13">
-        <v>1.7942129629629629E-3</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1.5353009259259261E-3</v>
-      </c>
-      <c r="H3" s="13">
-        <v>3.7476851851851858E-4</v>
-      </c>
-      <c r="I3" s="13">
-        <v>6.0335648148148152E-4</v>
-      </c>
-      <c r="J3" s="13">
-        <v>7.6516203703703718E-4</v>
-      </c>
-      <c r="K3" s="13">
-        <v>6.4687499999999999E-4</v>
-      </c>
-      <c r="L3" s="13">
-        <v>1.5703703703703704E-3</v>
-      </c>
-      <c r="M3" s="13">
-        <v>1.3629629629629632E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" si="0"/>
-        <v>2002</v>
-      </c>
-      <c r="B4" s="12">
-        <v>4.1504629629629633E-4</v>
-      </c>
-      <c r="C4" s="12">
-        <v>6.9363425925925929E-4</v>
-      </c>
-      <c r="D4" s="12">
-        <v>8.6585648148148166E-4</v>
-      </c>
-      <c r="E4" s="12">
-        <v>7.3368055555555556E-4</v>
-      </c>
-      <c r="F4" s="12">
-        <v>1.7427083333333333E-3</v>
-      </c>
-      <c r="G4" s="14">
-        <v>1.5210648148148147E-3</v>
-      </c>
-      <c r="H4" s="12">
-        <v>3.5949074074074073E-4</v>
-      </c>
-      <c r="I4" s="12">
-        <v>6.0335648148148152E-4</v>
-      </c>
-      <c r="J4" s="12">
-        <v>7.3287037037037027E-4</v>
-      </c>
-      <c r="K4" s="12">
-        <v>6.3622685185185191E-4</v>
-      </c>
-      <c r="L4" s="12">
-        <v>1.5243055555555554E-3</v>
-      </c>
-      <c r="M4" s="12">
-        <v>1.3346064814814815E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="0"/>
-        <v>2003</v>
-      </c>
-      <c r="B5" s="13">
-        <v>4.1446759259259258E-4</v>
-      </c>
-      <c r="C5" s="13">
-        <v>6.9363425925925929E-4</v>
-      </c>
-      <c r="D5" s="13">
-        <v>8.6585648148148166E-4</v>
-      </c>
-      <c r="E5" s="13">
-        <v>7.2858796296296289E-4</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1.7341435185185185E-3</v>
-      </c>
-      <c r="G5" s="15">
-        <v>1.5210648148148147E-3</v>
-      </c>
-      <c r="H5" s="13">
-        <v>3.5532407407407404E-4</v>
-      </c>
-      <c r="I5" s="13">
-        <v>5.8472222222222226E-4</v>
-      </c>
-      <c r="J5" s="13">
-        <v>7.3287037037037027E-4</v>
-      </c>
-      <c r="K5" s="13">
-        <v>6.3460648148148144E-4</v>
-      </c>
-      <c r="L5" s="13">
-        <v>1.5031249999999999E-3</v>
-      </c>
-      <c r="M5" s="13">
-        <v>1.3346064814814815E-3</v>
+        <v>2000</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12">
+        <v>7.0497685185185192E-4</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
+        <v>7.3368055555555556E-4</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="14">
+        <v>1.5353009259259261E-3</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12">
+        <v>6.0335648148148152E-4</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
+        <v>6.4687499999999999E-4</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12">
+        <v>1.3629629629629632E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="0"/>
-        <v>2004</v>
-      </c>
-      <c r="B6" s="12">
-        <v>4.130787037037037E-4</v>
-      </c>
-      <c r="C6" s="12">
-        <v>6.9363425925925929E-4</v>
-      </c>
-      <c r="D6" s="12">
-        <v>8.524305555555556E-4</v>
-      </c>
-      <c r="E6" s="12">
-        <v>7.1979166666666665E-4</v>
-      </c>
-      <c r="F6" s="12">
-        <v>1.7252314814814815E-3</v>
-      </c>
-      <c r="G6" s="14">
-        <v>1.5210648148148147E-3</v>
-      </c>
-      <c r="H6" s="12">
-        <v>3.5532407407407404E-4</v>
-      </c>
-      <c r="I6" s="12">
-        <v>5.8472222222222226E-4</v>
-      </c>
-      <c r="J6" s="12">
-        <v>7.2893518518518522E-4</v>
-      </c>
-      <c r="K6" s="12">
-        <v>6.2210648148148151E-4</v>
-      </c>
-      <c r="L6" s="12">
-        <v>1.4964120370370372E-3</v>
-      </c>
-      <c r="M6" s="12">
-        <v>1.3346064814814815E-3</v>
+        <f t="shared" ref="A6:A31" si="0">A5+1</f>
+        <v>2001</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4.5000000000000004E-4</v>
+      </c>
+      <c r="C6" s="13">
+        <v>6.864583333333333E-4</v>
+      </c>
+      <c r="D6" s="13">
+        <v>9.1134259259259261E-4</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7.3368055555555556E-4</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1.7942129629629629E-3</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1.5353009259259261E-3</v>
+      </c>
+      <c r="H6" s="13">
+        <v>3.7476851851851858E-4</v>
+      </c>
+      <c r="I6" s="13">
+        <v>6.0335648148148152E-4</v>
+      </c>
+      <c r="J6" s="13">
+        <v>7.6516203703703718E-4</v>
+      </c>
+      <c r="K6" s="13">
+        <v>6.4687499999999999E-4</v>
+      </c>
+      <c r="L6" s="13">
+        <v>1.5703703703703704E-3</v>
+      </c>
+      <c r="M6" s="13">
+        <v>1.3629629629629632E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
-        <v>2005</v>
-      </c>
-      <c r="B7" s="13">
-        <v>4.1203703703703709E-4</v>
-      </c>
-      <c r="C7" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B7" s="12">
+        <v>4.1504629629629633E-4</v>
+      </c>
+      <c r="C7" s="12">
         <v>6.9363425925925929E-4</v>
       </c>
-      <c r="D7" s="13">
-        <v>8.524305555555556E-4</v>
-      </c>
-      <c r="E7" s="13">
-        <v>7.1979166666666665E-4</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1.7252314814814815E-3</v>
-      </c>
-      <c r="G7" s="15">
+      <c r="D7" s="12">
+        <v>8.6585648148148166E-4</v>
+      </c>
+      <c r="E7" s="12">
+        <v>7.3368055555555556E-4</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.7427083333333333E-3</v>
+      </c>
+      <c r="G7" s="14">
         <v>1.5210648148148147E-3</v>
       </c>
-      <c r="H7" s="13">
-        <v>3.5532407407407404E-4</v>
-      </c>
-      <c r="I7" s="13">
-        <v>5.8425925925925919E-4</v>
-      </c>
-      <c r="J7" s="13">
-        <v>7.1458333333333324E-4</v>
-      </c>
-      <c r="K7" s="13">
-        <v>6.2210648148148151E-4</v>
-      </c>
-      <c r="L7" s="13">
-        <v>1.4964120370370372E-3</v>
-      </c>
-      <c r="M7" s="13">
+      <c r="H7" s="12">
+        <v>3.5949074074074073E-4</v>
+      </c>
+      <c r="I7" s="12">
+        <v>6.0335648148148152E-4</v>
+      </c>
+      <c r="J7" s="12">
+        <v>7.3287037037037027E-4</v>
+      </c>
+      <c r="K7" s="12">
+        <v>6.3622685185185191E-4</v>
+      </c>
+      <c r="L7" s="12">
+        <v>1.5243055555555554E-3</v>
+      </c>
+      <c r="M7" s="12">
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
-        <v>2006</v>
-      </c>
-      <c r="B8" s="12">
-        <v>4.0810185185185182E-4</v>
-      </c>
-      <c r="C8" s="12">
-        <v>6.5891203703703695E-4</v>
-      </c>
-      <c r="D8" s="12">
-        <v>8.4236111111111111E-4</v>
-      </c>
-      <c r="E8" s="12">
-        <v>7.1979166666666665E-4</v>
-      </c>
-      <c r="F8" s="12">
-        <v>1.7197916666666666E-3</v>
-      </c>
-      <c r="G8" s="14">
-        <v>1.5043981481481479E-3</v>
-      </c>
-      <c r="H8" s="12">
-        <v>3.5520833333333341E-4</v>
-      </c>
-      <c r="I8" s="12">
-        <v>5.8425925925925919E-4</v>
-      </c>
-      <c r="J8" s="12">
-        <v>7.3657407407407406E-4</v>
-      </c>
-      <c r="K8" s="12">
-        <v>6.2210648148148151E-4</v>
-      </c>
-      <c r="L8" s="12">
-        <v>1.4964120370370372E-3</v>
-      </c>
-      <c r="M8" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B8" s="13">
+        <v>4.1446759259259258E-4</v>
+      </c>
+      <c r="C8" s="13">
+        <v>6.9363425925925929E-4</v>
+      </c>
+      <c r="D8" s="13">
+        <v>8.6585648148148166E-4</v>
+      </c>
+      <c r="E8" s="13">
+        <v>7.2858796296296289E-4</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1.7341435185185185E-3</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1.5210648148148147E-3</v>
+      </c>
+      <c r="H8" s="13">
+        <v>3.5532407407407404E-4</v>
+      </c>
+      <c r="I8" s="13">
+        <v>5.8472222222222226E-4</v>
+      </c>
+      <c r="J8" s="13">
+        <v>7.3287037037037027E-4</v>
+      </c>
+      <c r="K8" s="13">
+        <v>6.3460648148148144E-4</v>
+      </c>
+      <c r="L8" s="13">
+        <v>1.5031249999999999E-3</v>
+      </c>
+      <c r="M8" s="13">
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
-        <v>2007</v>
-      </c>
-      <c r="B9" s="13">
-        <v>4.0810185185185182E-4</v>
-      </c>
-      <c r="C9" s="13">
-        <v>6.5891203703703695E-4</v>
-      </c>
-      <c r="D9" s="13">
-        <v>8.4236111111111111E-4</v>
-      </c>
-      <c r="E9" s="13">
-        <v>7.1712962962962963E-4</v>
-      </c>
-      <c r="F9" s="13">
-        <v>1.7197916666666666E-3</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1.4934027777777777E-3</v>
-      </c>
-      <c r="H9" s="13">
-        <v>3.4120370370370375E-4</v>
-      </c>
-      <c r="I9" s="13">
-        <v>5.7280092592592593E-4</v>
-      </c>
-      <c r="J9" s="13">
-        <v>7.2615740740740746E-4</v>
-      </c>
-      <c r="K9" s="13">
+        <v>2004</v>
+      </c>
+      <c r="B9" s="12">
+        <v>4.130787037037037E-4</v>
+      </c>
+      <c r="C9" s="12">
+        <v>6.9363425925925929E-4</v>
+      </c>
+      <c r="D9" s="12">
+        <v>8.524305555555556E-4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>7.1979166666666665E-4</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1.7252314814814815E-3</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1.5210648148148147E-3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>3.5532407407407404E-4</v>
+      </c>
+      <c r="I9" s="12">
+        <v>5.8472222222222226E-4</v>
+      </c>
+      <c r="J9" s="12">
+        <v>7.2893518518518522E-4</v>
+      </c>
+      <c r="K9" s="12">
         <v>6.2210648148148151E-4</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="12">
         <v>1.4964120370370372E-3</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="12">
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
-        <v>2008</v>
-      </c>
-      <c r="B10" s="12">
-        <v>4.0810185185185182E-4</v>
-      </c>
-      <c r="C10" s="12">
-        <v>6.5891203703703695E-4</v>
-      </c>
-      <c r="D10" s="12">
-        <v>8.4236111111111111E-4</v>
-      </c>
-      <c r="E10" s="12">
-        <v>7.0150462962962961E-4</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1.7197916666666666E-3</v>
-      </c>
-      <c r="G10" s="14">
-        <v>1.4934027777777777E-3</v>
-      </c>
-      <c r="H10" s="12">
-        <v>3.4120370370370375E-4</v>
-      </c>
-      <c r="I10" s="12">
-        <v>5.7199074074074075E-4</v>
-      </c>
-      <c r="J10" s="12">
-        <v>7.1435185185185187E-4</v>
-      </c>
-      <c r="K10" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B10" s="13">
+        <v>4.1203703703703709E-4</v>
+      </c>
+      <c r="C10" s="13">
+        <v>6.9363425925925929E-4</v>
+      </c>
+      <c r="D10" s="13">
+        <v>8.524305555555556E-4</v>
+      </c>
+      <c r="E10" s="13">
+        <v>7.1979166666666665E-4</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1.7252314814814815E-3</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.5210648148148147E-3</v>
+      </c>
+      <c r="H10" s="13">
+        <v>3.5532407407407404E-4</v>
+      </c>
+      <c r="I10" s="13">
+        <v>5.8425925925925919E-4</v>
+      </c>
+      <c r="J10" s="13">
+        <v>7.1458333333333324E-4</v>
+      </c>
+      <c r="K10" s="13">
         <v>6.2210648148148151E-4</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="13">
         <v>1.4964120370370372E-3</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="13">
         <v>1.3346064814814815E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
-        <v>2009</v>
-      </c>
-      <c r="B11" s="13">
+        <v>2006</v>
+      </c>
+      <c r="B11" s="12">
         <v>4.0810185185185182E-4</v>
       </c>
-      <c r="C11" s="13">
-        <v>6.5289351851851847E-4</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="C11" s="12">
+        <v>6.5891203703703695E-4</v>
+      </c>
+      <c r="D11" s="12">
         <v>8.4236111111111111E-4</v>
       </c>
-      <c r="E11" s="13">
-        <v>7.0150462962962961E-4</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="12">
+        <v>7.1979166666666665E-4</v>
+      </c>
+      <c r="F11" s="12">
         <v>1.7197916666666666E-3</v>
       </c>
-      <c r="G11" s="15">
-        <v>1.4106481481481481E-3</v>
-      </c>
-      <c r="H11" s="13">
-        <v>3.3495370370370368E-4</v>
-      </c>
-      <c r="I11" s="13">
-        <v>5.597222222222222E-4</v>
-      </c>
-      <c r="J11" s="13">
-        <v>6.9189814814814819E-4</v>
-      </c>
-      <c r="K11" s="13">
+      <c r="G11" s="14">
+        <v>1.5043981481481479E-3</v>
+      </c>
+      <c r="H11" s="12">
+        <v>3.5520833333333341E-4</v>
+      </c>
+      <c r="I11" s="12">
+        <v>5.8425925925925919E-4</v>
+      </c>
+      <c r="J11" s="12">
+        <v>7.3657407407407406E-4</v>
+      </c>
+      <c r="K11" s="12">
         <v>6.2210648148148151E-4</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>1.4964120370370372E-3</v>
       </c>
-      <c r="M11" s="13">
-        <v>1.3306712962962966E-3</v>
+      <c r="M11" s="12">
+        <v>1.3346064814814815E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
-        <v>2010</v>
-      </c>
-      <c r="B12" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B12" s="13">
         <v>4.0810185185185182E-4</v>
       </c>
-      <c r="C12" s="12">
-        <v>6.5289351851851847E-4</v>
-      </c>
-      <c r="D12" s="12">
-        <v>8.4178240740740741E-4</v>
-      </c>
-      <c r="E12" s="12">
-        <v>7.0150462962962961E-4</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="C12" s="13">
+        <v>6.5891203703703695E-4</v>
+      </c>
+      <c r="D12" s="13">
+        <v>8.4236111111111111E-4</v>
+      </c>
+      <c r="E12" s="13">
+        <v>7.1712962962962963E-4</v>
+      </c>
+      <c r="F12" s="13">
         <v>1.7197916666666666E-3</v>
       </c>
-      <c r="G12" s="14">
-        <v>1.4106481481481481E-3</v>
-      </c>
-      <c r="H12" s="12">
-        <v>3.3495370370370368E-4</v>
-      </c>
-      <c r="I12" s="12">
-        <v>5.597222222222222E-4</v>
-      </c>
-      <c r="J12" s="12">
-        <v>6.9189814814814819E-4</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="G12" s="15">
+        <v>1.4934027777777777E-3</v>
+      </c>
+      <c r="H12" s="13">
+        <v>3.4120370370370375E-4</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5.7280092592592593E-4</v>
+      </c>
+      <c r="J12" s="13">
+        <v>7.2615740740740746E-4</v>
+      </c>
+      <c r="K12" s="13">
         <v>6.2210648148148151E-4</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="13">
         <v>1.4964120370370372E-3</v>
       </c>
-      <c r="M12" s="12">
-        <v>1.3306712962962966E-3</v>
+      <c r="M12" s="13">
+        <v>1.3346064814814815E-3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
-        <v>2011</v>
-      </c>
-      <c r="B13" s="13">
+        <v>2008</v>
+      </c>
+      <c r="B13" s="12">
         <v>4.0810185185185182E-4</v>
       </c>
-      <c r="C13" s="13">
-        <v>6.5254629629629636E-4</v>
-      </c>
-      <c r="D13" s="13">
-        <v>8.4027777777777779E-4</v>
-      </c>
-      <c r="E13" s="13">
-        <v>7.0011574074074073E-4</v>
-      </c>
-      <c r="F13" s="13">
-        <v>1.6951388888888886E-3</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1.4106481481481481E-3</v>
-      </c>
-      <c r="H13" s="13">
-        <v>3.3495370370370368E-4</v>
-      </c>
-      <c r="I13" s="13">
-        <v>5.5416666666666667E-4</v>
-      </c>
-      <c r="J13" s="13">
-        <v>6.9189814814814819E-4</v>
-      </c>
-      <c r="K13" s="13">
-        <v>6.1273148148148146E-4</v>
-      </c>
-      <c r="L13" s="13">
-        <v>1.4798611111111113E-3</v>
-      </c>
-      <c r="M13" s="13">
-        <v>1.3306712962962966E-3</v>
+      <c r="C13" s="12">
+        <v>6.5891203703703695E-4</v>
+      </c>
+      <c r="D13" s="12">
+        <v>8.4236111111111111E-4</v>
+      </c>
+      <c r="E13" s="12">
+        <v>7.0150462962962961E-4</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1.7197916666666666E-3</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1.4934027777777777E-3</v>
+      </c>
+      <c r="H13" s="12">
+        <v>3.4120370370370375E-4</v>
+      </c>
+      <c r="I13" s="12">
+        <v>5.7199074074074075E-4</v>
+      </c>
+      <c r="J13" s="12">
+        <v>7.1435185185185187E-4</v>
+      </c>
+      <c r="K13" s="12">
+        <v>6.2210648148148151E-4</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1.4964120370370372E-3</v>
+      </c>
+      <c r="M13" s="12">
+        <v>1.3346064814814815E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
-        <v>2012</v>
-      </c>
-      <c r="B14" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B14" s="13">
         <v>4.0810185185185182E-4</v>
       </c>
-      <c r="C14" s="12">
-        <v>6.5254629629629636E-4</v>
-      </c>
-      <c r="D14" s="12">
-        <v>8.244212962962963E-4</v>
-      </c>
-      <c r="E14" s="12">
-        <v>6.9224537037037041E-4</v>
-      </c>
-      <c r="F14" s="12">
-        <v>1.6730324074074076E-3</v>
-      </c>
-      <c r="G14" s="14">
+      <c r="C14" s="13">
+        <v>6.5289351851851847E-4</v>
+      </c>
+      <c r="D14" s="13">
+        <v>8.4236111111111111E-4</v>
+      </c>
+      <c r="E14" s="13">
+        <v>7.0150462962962961E-4</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1.7197916666666666E-3</v>
+      </c>
+      <c r="G14" s="15">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>3.3495370370370368E-4</v>
       </c>
-      <c r="I14" s="12">
-        <v>5.3749999999999989E-4</v>
-      </c>
-      <c r="J14" s="12">
+      <c r="I14" s="13">
+        <v>5.597222222222222E-4</v>
+      </c>
+      <c r="J14" s="13">
         <v>6.9189814814814819E-4</v>
       </c>
-      <c r="K14" s="12">
-        <v>5.9444444444444443E-4</v>
-      </c>
-      <c r="L14" s="12">
-        <v>1.4798611111111113E-3</v>
-      </c>
-      <c r="M14" s="12">
-        <v>1.312962962962963E-3</v>
+      <c r="K14" s="13">
+        <v>6.2210648148148151E-4</v>
+      </c>
+      <c r="L14" s="13">
+        <v>1.4964120370370372E-3</v>
+      </c>
+      <c r="M14" s="13">
+        <v>1.3306712962962966E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
-        <v>2013</v>
-      </c>
-      <c r="B15" s="13">
-        <v>4.0208333333333334E-4</v>
-      </c>
-      <c r="C15" s="13">
-        <v>6.4490740740740741E-4</v>
-      </c>
-      <c r="D15" s="13">
-        <v>8.0543981481481482E-4</v>
-      </c>
-      <c r="E15" s="13">
-        <v>6.9074074074074079E-4</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1.6730324074074076E-3</v>
-      </c>
-      <c r="G15" s="15">
+        <v>2010</v>
+      </c>
+      <c r="B15" s="12">
+        <v>4.0810185185185182E-4</v>
+      </c>
+      <c r="C15" s="12">
+        <v>6.5289351851851847E-4</v>
+      </c>
+      <c r="D15" s="12">
+        <v>8.4178240740740741E-4</v>
+      </c>
+      <c r="E15" s="12">
+        <v>7.0150462962962961E-4</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1.7197916666666666E-3</v>
+      </c>
+      <c r="G15" s="14">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>3.3495370370370368E-4</v>
       </c>
-      <c r="I15" s="13">
-        <v>5.322916666666667E-4</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="I15" s="12">
+        <v>5.597222222222222E-4</v>
+      </c>
+      <c r="J15" s="12">
         <v>6.9189814814814819E-4</v>
       </c>
-      <c r="K15" s="13">
-        <v>5.84837962962963E-4</v>
-      </c>
-      <c r="L15" s="13">
-        <v>1.4621527777777777E-3</v>
-      </c>
-      <c r="M15" s="13">
-        <v>1.312962962962963E-3</v>
+      <c r="K15" s="12">
+        <v>6.2210648148148151E-4</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1.4964120370370372E-3</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1.3306712962962966E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
-        <v>2014</v>
-      </c>
-      <c r="B16" s="12">
-        <v>4.0208333333333334E-4</v>
-      </c>
-      <c r="C16" s="12">
-        <v>5.9768518518518515E-4</v>
-      </c>
-      <c r="D16" s="12">
-        <v>8.0069444444444448E-4</v>
-      </c>
-      <c r="E16" s="12">
-        <v>6.7164351851851857E-4</v>
-      </c>
-      <c r="F16" s="12">
-        <v>1.6690972222222222E-3</v>
-      </c>
-      <c r="G16" s="14">
+        <v>2011</v>
+      </c>
+      <c r="B16" s="13">
+        <v>4.0810185185185182E-4</v>
+      </c>
+      <c r="C16" s="13">
+        <v>6.5254629629629636E-4</v>
+      </c>
+      <c r="D16" s="13">
+        <v>8.4027777777777779E-4</v>
+      </c>
+      <c r="E16" s="13">
+        <v>7.0011574074074073E-4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1.6951388888888886E-3</v>
+      </c>
+      <c r="G16" s="15">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H16" s="12">
-        <v>3.2696759259259262E-4</v>
-      </c>
-      <c r="I16" s="12">
-        <v>5.2256944444444443E-4</v>
-      </c>
-      <c r="J16" s="12">
+      <c r="H16" s="13">
+        <v>3.3495370370370368E-4</v>
+      </c>
+      <c r="I16" s="13">
+        <v>5.5416666666666667E-4</v>
+      </c>
+      <c r="J16" s="13">
         <v>6.9189814814814819E-4</v>
       </c>
-      <c r="K16" s="12">
-        <v>5.8287037037037042E-4</v>
-      </c>
-      <c r="L16" s="12">
-        <v>1.454398148148148E-3</v>
-      </c>
-      <c r="M16" s="12">
-        <v>1.3116898148148148E-3</v>
+      <c r="K16" s="13">
+        <v>6.1273148148148146E-4</v>
+      </c>
+      <c r="L16" s="13">
+        <v>1.4798611111111113E-3</v>
+      </c>
+      <c r="M16" s="13">
+        <v>1.3306712962962966E-3</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
-        <v>2015</v>
-      </c>
-      <c r="B17" s="13">
-        <v>3.9664351851851856E-4</v>
-      </c>
-      <c r="C17" s="13">
-        <v>5.9768518518518515E-4</v>
-      </c>
-      <c r="D17" s="13">
-        <v>7.969907407407408E-4</v>
-      </c>
-      <c r="E17" s="13">
-        <v>6.7164351851851857E-4</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1.6690972222222222E-3</v>
-      </c>
-      <c r="G17" s="15">
+        <v>2012</v>
+      </c>
+      <c r="B17" s="12">
+        <v>4.0810185185185182E-4</v>
+      </c>
+      <c r="C17" s="12">
+        <v>6.5254629629629636E-4</v>
+      </c>
+      <c r="D17" s="12">
+        <v>8.244212962962963E-4</v>
+      </c>
+      <c r="E17" s="12">
+        <v>6.9224537037037041E-4</v>
+      </c>
+      <c r="F17" s="12">
+        <v>1.6730324074074076E-3</v>
+      </c>
+      <c r="G17" s="14">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H17" s="13">
-        <v>3.2696759259259262E-4</v>
-      </c>
-      <c r="I17" s="13">
-        <v>5.2256944444444443E-4</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="H17" s="12">
+        <v>3.3495370370370368E-4</v>
+      </c>
+      <c r="I17" s="12">
+        <v>5.3749999999999989E-4</v>
+      </c>
+      <c r="J17" s="12">
         <v>6.9189814814814819E-4</v>
       </c>
-      <c r="K17" s="13">
-        <v>5.8287037037037042E-4</v>
-      </c>
-      <c r="L17" s="13">
-        <v>1.454398148148148E-3</v>
-      </c>
-      <c r="M17" s="13">
-        <v>1.3116898148148148E-3</v>
+      <c r="K17" s="12">
+        <v>5.9444444444444443E-4</v>
+      </c>
+      <c r="L17" s="12">
+        <v>1.4798611111111113E-3</v>
+      </c>
+      <c r="M17" s="12">
+        <v>1.312962962962963E-3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
-        <v>2016</v>
-      </c>
-      <c r="B18" s="12">
-        <v>3.7951388888888887E-4</v>
-      </c>
-      <c r="C18" s="12">
-        <v>5.9768518518518515E-4</v>
-      </c>
-      <c r="D18" s="12">
-        <v>7.969907407407408E-4</v>
-      </c>
-      <c r="E18" s="12">
-        <v>6.7060185185185191E-4</v>
-      </c>
-      <c r="F18" s="12">
-        <v>1.6438657407407409E-3</v>
-      </c>
-      <c r="G18" s="14">
+        <v>2013</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4.0208333333333334E-4</v>
+      </c>
+      <c r="C18" s="13">
+        <v>6.4490740740740741E-4</v>
+      </c>
+      <c r="D18" s="13">
+        <v>8.0543981481481482E-4</v>
+      </c>
+      <c r="E18" s="13">
+        <v>6.9074074074074079E-4</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1.6730324074074076E-3</v>
+      </c>
+      <c r="G18" s="15">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H18" s="12">
-        <v>3.2476851851851845E-4</v>
-      </c>
-      <c r="I18" s="12">
-        <v>5.2256944444444443E-4</v>
-      </c>
-      <c r="J18" s="12">
-        <v>6.8726851851851848E-4</v>
-      </c>
-      <c r="K18" s="12">
-        <v>5.7719907407407405E-4</v>
-      </c>
-      <c r="L18" s="12">
-        <v>1.4452546296296297E-3</v>
-      </c>
-      <c r="M18" s="12">
-        <v>1.3116898148148148E-3</v>
+      <c r="H18" s="13">
+        <v>3.3495370370370368E-4</v>
+      </c>
+      <c r="I18" s="13">
+        <v>5.322916666666667E-4</v>
+      </c>
+      <c r="J18" s="13">
+        <v>6.9189814814814819E-4</v>
+      </c>
+      <c r="K18" s="13">
+        <v>5.84837962962963E-4</v>
+      </c>
+      <c r="L18" s="13">
+        <v>1.4621527777777777E-3</v>
+      </c>
+      <c r="M18" s="13">
+        <v>1.312962962962963E-3</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
-      <c r="B19" s="13">
-        <v>3.7951388888888887E-4</v>
-      </c>
-      <c r="C19" s="13">
+        <v>2014</v>
+      </c>
+      <c r="B19" s="12">
+        <v>4.0208333333333334E-4</v>
+      </c>
+      <c r="C19" s="12">
         <v>5.9768518518518515E-4</v>
       </c>
-      <c r="D19" s="13">
-        <v>7.969907407407408E-4</v>
-      </c>
-      <c r="E19" s="13">
-        <v>6.6180555555555556E-4</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1.6403935185185185E-3</v>
-      </c>
-      <c r="G19" s="15">
+      <c r="D19" s="12">
+        <v>8.0069444444444448E-4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>6.7164351851851857E-4</v>
+      </c>
+      <c r="F19" s="12">
+        <v>1.6690972222222222E-3</v>
+      </c>
+      <c r="G19" s="14">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H19" s="13">
-        <v>3.1562499999999999E-4</v>
-      </c>
-      <c r="I19" s="13">
-        <v>5.2187500000000009E-4</v>
-      </c>
-      <c r="J19" s="13">
-        <v>6.8113425925925926E-4</v>
-      </c>
-      <c r="K19" s="13">
-        <v>5.6736111111111115E-4</v>
-      </c>
-      <c r="L19" s="13">
-        <v>1.4390046296296295E-3</v>
-      </c>
-      <c r="M19" s="13">
+      <c r="H19" s="12">
+        <v>3.2696759259259262E-4</v>
+      </c>
+      <c r="I19" s="12">
+        <v>5.2256944444444443E-4</v>
+      </c>
+      <c r="J19" s="12">
+        <v>6.9189814814814819E-4</v>
+      </c>
+      <c r="K19" s="12">
+        <v>5.8287037037037042E-4</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1.454398148148148E-3</v>
+      </c>
+      <c r="M19" s="12">
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
-      <c r="B20" s="12">
-        <v>3.7951388888888887E-4</v>
-      </c>
-      <c r="C20" s="12">
-        <v>5.836805555555556E-4</v>
-      </c>
-      <c r="D20" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B20" s="13">
+        <v>3.9664351851851856E-4</v>
+      </c>
+      <c r="C20" s="13">
+        <v>5.9768518518518515E-4</v>
+      </c>
+      <c r="D20" s="13">
         <v>7.969907407407408E-4</v>
       </c>
-      <c r="E20" s="12">
-        <v>6.6030092592592583E-4</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1.6390046296296298E-3</v>
-      </c>
-      <c r="G20" s="14">
+      <c r="E20" s="13">
+        <v>6.7164351851851857E-4</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1.6690972222222222E-3</v>
+      </c>
+      <c r="G20" s="15">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H20" s="12">
-        <v>3.1562499999999999E-4</v>
-      </c>
-      <c r="I20" s="12">
-        <v>5.1168981481481475E-4</v>
-      </c>
-      <c r="J20" s="12">
-        <v>6.8113425925925926E-4</v>
-      </c>
-      <c r="K20" s="12">
-        <v>5.6736111111111115E-4</v>
-      </c>
-      <c r="L20" s="12">
-        <v>1.4390046296296295E-3</v>
-      </c>
-      <c r="M20" s="12">
+      <c r="H20" s="13">
+        <v>3.2696759259259262E-4</v>
+      </c>
+      <c r="I20" s="13">
+        <v>5.2256944444444443E-4</v>
+      </c>
+      <c r="J20" s="13">
+        <v>6.9189814814814819E-4</v>
+      </c>
+      <c r="K20" s="13">
+        <v>5.8287037037037042E-4</v>
+      </c>
+      <c r="L20" s="13">
+        <v>1.454398148148148E-3</v>
+      </c>
+      <c r="M20" s="13">
         <v>1.3116898148148148E-3</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
-      <c r="B21" s="13">
+        <v>2016</v>
+      </c>
+      <c r="B21" s="12">
         <v>3.7951388888888887E-4</v>
       </c>
-      <c r="C21" s="13">
-        <v>5.7094907407407409E-4</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="12">
+        <v>5.9768518518518515E-4</v>
+      </c>
+      <c r="D21" s="12">
         <v>7.969907407407408E-4</v>
       </c>
-      <c r="E21" s="13">
-        <v>6.4120370370370373E-4</v>
-      </c>
-      <c r="F21" s="13">
-        <v>1.6209490740740739E-3</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="E21" s="12">
+        <v>6.7060185185185191E-4</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1.6438657407407409E-3</v>
+      </c>
+      <c r="G21" s="14">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H21" s="13">
-        <v>3.1562499999999999E-4</v>
-      </c>
-      <c r="I21" s="13">
-        <v>5.0972222222222228E-4</v>
-      </c>
-      <c r="J21" s="13">
-        <v>6.8113425925925926E-4</v>
-      </c>
-      <c r="K21" s="13">
-        <v>5.6736111111111115E-4</v>
-      </c>
-      <c r="L21" s="13">
-        <v>1.4390046296296295E-3</v>
-      </c>
-      <c r="M21" s="13">
-        <v>1.3097222222222223E-3</v>
+      <c r="H21" s="12">
+        <v>3.2476851851851845E-4</v>
+      </c>
+      <c r="I21" s="12">
+        <v>5.2256944444444443E-4</v>
+      </c>
+      <c r="J21" s="12">
+        <v>6.8726851851851848E-4</v>
+      </c>
+      <c r="K21" s="12">
+        <v>5.7719907407407405E-4</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1.4452546296296297E-3</v>
+      </c>
+      <c r="M21" s="12">
+        <v>1.3116898148148148E-3</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-      <c r="B22" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="13">
         <v>3.7951388888888887E-4</v>
       </c>
-      <c r="C22" s="12">
-        <v>5.7094907407407409E-4</v>
-      </c>
-      <c r="D22" s="12">
+      <c r="C22" s="13">
+        <v>5.9768518518518515E-4</v>
+      </c>
+      <c r="D22" s="13">
         <v>7.969907407407408E-4</v>
       </c>
-      <c r="E22" s="12">
-        <v>6.4120370370370373E-4</v>
-      </c>
-      <c r="F22" s="12">
-        <v>1.6209490740740739E-3</v>
-      </c>
-      <c r="G22" s="14">
+      <c r="E22" s="13">
+        <v>6.6180555555555556E-4</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1.6403935185185185E-3</v>
+      </c>
+      <c r="G22" s="15">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="13">
         <v>3.1562499999999999E-4</v>
       </c>
-      <c r="I22" s="12">
-        <v>5.0972222222222228E-4</v>
-      </c>
-      <c r="J22" s="12">
+      <c r="I22" s="13">
+        <v>5.2187500000000009E-4</v>
+      </c>
+      <c r="J22" s="13">
         <v>6.8113425925925926E-4</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="13">
         <v>5.6736111111111115E-4</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="13">
         <v>1.4390046296296295E-3</v>
       </c>
-      <c r="M22" s="12">
-        <v>1.3097222222222223E-3</v>
+      <c r="M22" s="13">
+        <v>1.3116898148148148E-3</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="B23" s="13">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="12">
         <v>3.7951388888888887E-4</v>
       </c>
-      <c r="C23" s="13">
-        <v>5.7094907407407409E-4</v>
-      </c>
-      <c r="D23" s="13">
-        <v>7.9398148148148145E-4</v>
-      </c>
-      <c r="E23" s="13">
-        <v>6.4120370370370373E-4</v>
-      </c>
-      <c r="F23" s="13">
-        <v>1.6065972222222222E-3</v>
-      </c>
-      <c r="G23" s="15">
+      <c r="C23" s="12">
+        <v>5.836805555555556E-4</v>
+      </c>
+      <c r="D23" s="12">
+        <v>7.969907407407408E-4</v>
+      </c>
+      <c r="E23" s="12">
+        <v>6.6030092592592583E-4</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1.6390046296296298E-3</v>
+      </c>
+      <c r="G23" s="14">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>3.1562499999999999E-4</v>
       </c>
-      <c r="I23" s="13">
-        <v>5.0972222222222228E-4</v>
-      </c>
-      <c r="J23" s="13">
-        <v>6.6736111111111108E-4</v>
-      </c>
-      <c r="K23" s="13">
+      <c r="I23" s="12">
+        <v>5.1168981481481475E-4</v>
+      </c>
+      <c r="J23" s="12">
+        <v>6.8113425925925926E-4</v>
+      </c>
+      <c r="K23" s="12">
         <v>5.6736111111111115E-4</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <v>1.4390046296296295E-3</v>
       </c>
-      <c r="M23" s="13">
-        <v>1.3097222222222223E-3</v>
+      <c r="M23" s="12">
+        <v>1.3116898148148148E-3</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
-      <c r="B24" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B24" s="13">
         <v>3.7951388888888887E-4</v>
       </c>
-      <c r="C24" s="12">
-        <v>5.7060185185185187E-4</v>
-      </c>
-      <c r="D24" s="12">
-        <v>7.7592592592592589E-4</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="C24" s="13">
+        <v>5.7094907407407409E-4</v>
+      </c>
+      <c r="D24" s="13">
+        <v>7.969907407407408E-4</v>
+      </c>
+      <c r="E24" s="13">
         <v>6.4120370370370373E-4</v>
       </c>
-      <c r="F24" s="12">
-        <v>1.5748842592592594E-3</v>
-      </c>
-      <c r="G24" s="14">
+      <c r="F24" s="13">
+        <v>1.6209490740740739E-3</v>
+      </c>
+      <c r="G24" s="15">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="13">
         <v>3.1562499999999999E-4</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="13">
         <v>5.0972222222222228E-4</v>
       </c>
-      <c r="J24" s="12">
-        <v>6.6736111111111108E-4</v>
-      </c>
-      <c r="K24" s="12">
+      <c r="J24" s="13">
+        <v>6.8113425925925926E-4</v>
+      </c>
+      <c r="K24" s="13">
         <v>5.6736111111111115E-4</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="13">
         <v>1.4390046296296295E-3</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="13">
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
-      <c r="B25" s="13">
-        <v>3.7835648148148147E-4</v>
-      </c>
-      <c r="C25" s="13">
-        <v>5.7060185185185187E-4</v>
-      </c>
-      <c r="D25" s="13">
-        <v>7.693287037037036E-4</v>
-      </c>
-      <c r="E25" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B25" s="12">
+        <v>3.7951388888888887E-4</v>
+      </c>
+      <c r="C25" s="12">
+        <v>5.7094907407407409E-4</v>
+      </c>
+      <c r="D25" s="12">
+        <v>7.969907407407408E-4</v>
+      </c>
+      <c r="E25" s="12">
         <v>6.4120370370370373E-4</v>
       </c>
-      <c r="F25" s="13">
-        <v>1.5748842592592594E-3</v>
-      </c>
-      <c r="G25" s="15">
+      <c r="F25" s="12">
+        <v>1.6209490740740739E-3</v>
+      </c>
+      <c r="G25" s="14">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="12">
         <v>3.1562499999999999E-4</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="12">
         <v>5.0972222222222228E-4</v>
       </c>
-      <c r="J25" s="13">
-        <v>6.6736111111111108E-4</v>
-      </c>
-      <c r="K25" s="13">
-        <v>5.660879629629629E-4</v>
-      </c>
-      <c r="L25" s="13">
-        <v>1.4233796296296295E-3</v>
-      </c>
-      <c r="M25" s="13">
+      <c r="J25" s="12">
+        <v>6.8113425925925926E-4</v>
+      </c>
+      <c r="K25" s="12">
+        <v>5.6736111111111115E-4</v>
+      </c>
+      <c r="L25" s="12">
+        <v>1.4390046296296295E-3</v>
+      </c>
+      <c r="M25" s="12">
         <v>1.3097222222222223E-3</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
-      <c r="B26" s="12">
-        <v>3.7268518518518526E-4</v>
-      </c>
-      <c r="C26" s="12">
-        <v>5.7060185185185187E-4</v>
-      </c>
-      <c r="D26" s="12">
-        <v>7.6099537037037032E-4</v>
-      </c>
-      <c r="E26" s="12">
-        <v>6.3692129629629635E-4</v>
-      </c>
-      <c r="F26" s="12">
-        <v>1.5748842592592594E-3</v>
-      </c>
-      <c r="G26" s="14">
+        <v>2021</v>
+      </c>
+      <c r="B26" s="13">
+        <v>3.7951388888888887E-4</v>
+      </c>
+      <c r="C26" s="13">
+        <v>5.7094907407407409E-4</v>
+      </c>
+      <c r="D26" s="13">
+        <v>7.9398148148148145E-4</v>
+      </c>
+      <c r="E26" s="13">
+        <v>6.4120370370370373E-4</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1.6065972222222222E-3</v>
+      </c>
+      <c r="G26" s="15">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H26" s="12">
-        <v>3.1481481481481481E-4</v>
-      </c>
-      <c r="I26" s="12">
-        <v>5.0891203703703699E-4</v>
-      </c>
-      <c r="J26" s="12">
+      <c r="H26" s="13">
+        <v>3.1562499999999999E-4</v>
+      </c>
+      <c r="I26" s="13">
+        <v>5.0972222222222228E-4</v>
+      </c>
+      <c r="J26" s="13">
         <v>6.6736111111111108E-4</v>
       </c>
-      <c r="K26" s="12">
-        <v>5.5185185185185187E-4</v>
-      </c>
-      <c r="L26" s="12">
-        <v>1.4233796296296295E-3</v>
-      </c>
-      <c r="M26" s="12">
-        <v>1.2931712962962962E-3</v>
+      <c r="K26" s="13">
+        <v>5.6736111111111115E-4</v>
+      </c>
+      <c r="L26" s="13">
+        <v>1.4390046296296295E-3</v>
+      </c>
+      <c r="M26" s="13">
+        <v>1.3097222222222223E-3</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
-        <v>2025</v>
-      </c>
-      <c r="B27" s="13">
-        <v>3.6435185185185187E-4</v>
-      </c>
-      <c r="C27" s="13">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="12">
+        <v>3.7951388888888887E-4</v>
+      </c>
+      <c r="C27" s="12">
         <v>5.7060185185185187E-4</v>
       </c>
-      <c r="D27" s="13">
-        <v>7.3715277777777776E-4</v>
-      </c>
-      <c r="E27" s="13">
-        <v>6.339120370370371E-4</v>
-      </c>
-      <c r="F27" s="13">
+      <c r="D27" s="12">
+        <v>7.7592592592592589E-4</v>
+      </c>
+      <c r="E27" s="12">
+        <v>6.4120370370370373E-4</v>
+      </c>
+      <c r="F27" s="12">
         <v>1.5748842592592594E-3</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="14">
         <v>1.4106481481481481E-3</v>
       </c>
-      <c r="H27" s="13">
-        <v>3.1481481481481481E-4</v>
-      </c>
-      <c r="I27" s="13">
-        <v>5.0104166666666667E-4</v>
-      </c>
-      <c r="J27" s="13">
-        <v>6.671296296296296E-4</v>
-      </c>
-      <c r="K27" s="13">
-        <v>5.5185185185185187E-4</v>
-      </c>
-      <c r="L27" s="13">
-        <v>1.4233796296296295E-3</v>
-      </c>
-      <c r="M27" s="13">
-        <v>1.2931712962962962E-3</v>
+      <c r="H27" s="12">
+        <v>3.1562499999999999E-4</v>
+      </c>
+      <c r="I27" s="12">
+        <v>5.0972222222222228E-4</v>
+      </c>
+      <c r="J27" s="12">
+        <v>6.6736111111111108E-4</v>
+      </c>
+      <c r="K27" s="12">
+        <v>5.6736111111111115E-4</v>
+      </c>
+      <c r="L27" s="12">
+        <v>1.4390046296296295E-3</v>
+      </c>
+      <c r="M27" s="12">
+        <v>1.3097222222222223E-3</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
+        <v>2023</v>
+      </c>
+      <c r="B28" s="13">
+        <v>3.7835648148148147E-4</v>
+      </c>
+      <c r="C28" s="13">
+        <v>5.7060185185185187E-4</v>
+      </c>
+      <c r="D28" s="13">
+        <v>7.693287037037036E-4</v>
+      </c>
+      <c r="E28" s="13">
+        <v>6.4120370370370373E-4</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1.5748842592592594E-3</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1.4106481481481481E-3</v>
+      </c>
+      <c r="H28" s="13">
+        <v>3.1562499999999999E-4</v>
+      </c>
+      <c r="I28" s="13">
+        <v>5.0972222222222228E-4</v>
+      </c>
+      <c r="J28" s="13">
+        <v>6.6736111111111108E-4</v>
+      </c>
+      <c r="K28" s="13">
+        <v>5.660879629629629E-4</v>
+      </c>
+      <c r="L28" s="13">
+        <v>1.4233796296296295E-3</v>
+      </c>
+      <c r="M28" s="13">
+        <v>1.3097222222222223E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3.7268518518518526E-4</v>
+      </c>
+      <c r="C29" s="12">
+        <v>5.7060185185185187E-4</v>
+      </c>
+      <c r="D29" s="12">
+        <v>7.6099537037037032E-4</v>
+      </c>
+      <c r="E29" s="12">
+        <v>6.3692129629629635E-4</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1.5748842592592594E-3</v>
+      </c>
+      <c r="G29" s="14">
+        <v>1.4106481481481481E-3</v>
+      </c>
+      <c r="H29" s="12">
+        <v>3.1481481481481481E-4</v>
+      </c>
+      <c r="I29" s="12">
+        <v>5.0891203703703699E-4</v>
+      </c>
+      <c r="J29" s="12">
+        <v>6.6736111111111108E-4</v>
+      </c>
+      <c r="K29" s="12">
+        <v>5.5185185185185187E-4</v>
+      </c>
+      <c r="L29" s="12">
+        <v>1.4233796296296295E-3</v>
+      </c>
+      <c r="M29" s="12">
+        <v>1.2931712962962962E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>2025</v>
+      </c>
+      <c r="B30" s="13">
+        <v>3.6435185185185187E-4</v>
+      </c>
+      <c r="C30" s="13">
+        <v>5.7060185185185187E-4</v>
+      </c>
+      <c r="D30" s="13">
+        <v>7.3715277777777776E-4</v>
+      </c>
+      <c r="E30" s="13">
+        <v>6.2731481481481481E-4</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1.5748842592592594E-3</v>
+      </c>
+      <c r="G30" s="15">
+        <v>1.4106481481481481E-3</v>
+      </c>
+      <c r="H30" s="13">
+        <v>3.1481481481481481E-4</v>
+      </c>
+      <c r="I30" s="13">
+        <v>5.0104166666666667E-4</v>
+      </c>
+      <c r="J30" s="13">
+        <v>6.671296296296296E-4</v>
+      </c>
+      <c r="K30" s="13">
+        <v>5.5185185185185187E-4</v>
+      </c>
+      <c r="L30" s="13">
+        <v>1.4233796296296295E-3</v>
+      </c>
+      <c r="M30" s="13">
+        <v>1.2931712962962962E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:G28">
+  <conditionalFormatting sqref="B5:G31">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>B2&lt;&gt;B1</formula>
+      <formula>B5&lt;&gt;B4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:M28">
+  <conditionalFormatting sqref="H5:M31">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>H2&lt;&gt;H1</formula>
+      <formula>H5&lt;&gt;H4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3811,12 +4115,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E1FA05-76A3-4AE3-B1B5-E78B06AE489F}">
-  <sheetPr>
+  <sheetPr codeName="Tabelle3">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -4572,13 +4876,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7831D901-68D8-4F92-82B6-BCB1A3899285}">
-  <sheetPr>
+  <sheetPr codeName="Tabelle4">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5368,10 +5672,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453761C1-FFCA-45E5-8C71-AB7C914C935B}">
+  <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5432,7 +5737,7 @@
       </c>
       <c r="B2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>44.41</v>
+        <v>43.94</v>
       </c>
       <c r="C2" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N2-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
@@ -5488,7 +5793,7 @@
       </c>
       <c r="B3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(B$1))*86400,2)</f>
-        <v>43.12</v>
+        <v>42.67</v>
       </c>
       <c r="C3" s="18">
         <f>ROUND(((2001/934)-((2001/934)^2+($N3-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Youth[],COLUMN(C$1))*86400,2)</f>
@@ -5556,7 +5861,7 @@
       </c>
       <c r="E4" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(E$1))*86400,2)</f>
-        <v>69.959999999999994</v>
+        <v>69.23</v>
       </c>
       <c r="F4" s="16">
         <f>ROUND(((2001/934)-((2001/934)^2+($N4-2534)/467)^(1/2))*VLOOKUP($A$1-1,WR_Open[],COLUMN(F$1))*86400,2)</f>
@@ -5634,7 +5939,7 @@
       </c>
       <c r="B9" s="33" t="str">
         <f t="shared" ref="B9:M11" si="0">CONCATENATE(ROUNDDOWN(B2/60,0),":",TEXT(B2-(60*ROUNDDOWN(B2/60,0)),"00,00"))</f>
-        <v>0:44,41</v>
+        <v>0:43,94</v>
       </c>
       <c r="C9" s="33" t="str">
         <f>CONCATENATE(ROUNDDOWN(C2/60,0),":",TEXT(C2-(60*ROUNDDOWN(C2/60,0)),"00,00"))</f>
@@ -5688,7 +5993,7 @@
       </c>
       <c r="B10" s="26" t="str">
         <f t="shared" si="0"/>
-        <v>0:43,12</v>
+        <v>0:42,67</v>
       </c>
       <c r="C10" s="26" t="str">
         <f t="shared" si="0"/>
@@ -5754,7 +6059,7 @@
       </c>
       <c r="E11" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>1:09,96</v>
+        <v>1:09,23</v>
       </c>
       <c r="F11" s="27" t="str">
         <f t="shared" si="0"/>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A492106A-17AE-4076-B487-0C791329C8BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDED9BD-37B3-4A88-A431-88A17C6975A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
   <si>
     <t>50m Retten</t>
   </si>
@@ -362,9 +362,6 @@
     <t>Zoe PEDERSEN</t>
   </si>
   <si>
-    <t>Aon-NZPRC-2025</t>
-  </si>
-  <si>
     <t>NZL</t>
   </si>
   <si>
@@ -374,18 +371,12 @@
     <t>ITA</t>
   </si>
   <si>
-    <t>LWC-2024</t>
-  </si>
-  <si>
     <t>Melissa GIORDANO</t>
   </si>
   <si>
     <t>Bianca RAYWARD</t>
   </si>
   <si>
-    <t>Battle of Tasman-2025</t>
-  </si>
-  <si>
     <t>AUS</t>
   </si>
   <si>
@@ -395,46 +386,115 @@
     <t>Giovanni MASTRORILLI</t>
   </si>
   <si>
-    <t>Orange Cup-2024</t>
-  </si>
-  <si>
-    <t>Alicante-2024</t>
-  </si>
-  <si>
-    <t>Riccione-2022</t>
-  </si>
-  <si>
-    <t>Riccione-2024</t>
-  </si>
-  <si>
-    <t>Riccione-2019</t>
-  </si>
-  <si>
     <t>ESP</t>
   </si>
   <si>
     <t>Simone LOCCHI</t>
   </si>
   <si>
-    <t>German Cup-2022</t>
-  </si>
-  <si>
     <t>Jaime IRUESTE ROJO</t>
   </si>
   <si>
     <t>Alberto TURRADO</t>
   </si>
   <si>
-    <t>Torrevieja-2021</t>
-  </si>
-  <si>
     <t>Davide CREMONINI</t>
   </si>
   <si>
     <t>Zac REID</t>
   </si>
   <si>
-    <t>LWC-2018</t>
+    <t>Eadie FERGUS</t>
+  </si>
+  <si>
+    <t>Tom DOURAGER</t>
+  </si>
+  <si>
+    <t>French Rescue - 2025</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Kacper MAJCHRZAK</t>
+  </si>
+  <si>
+    <t>World Games - 2025</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Harrison HYNES</t>
+  </si>
+  <si>
+    <t>LWC - 2024</t>
+  </si>
+  <si>
+    <t>Francesco IPPOLITO</t>
+  </si>
+  <si>
+    <t>Aon-NZPRC - 2025</t>
+  </si>
+  <si>
+    <t>Riccione - 2019</t>
+  </si>
+  <si>
+    <t>Riccione - 2024</t>
+  </si>
+  <si>
+    <t>Battle of Tasman - 2025</t>
+  </si>
+  <si>
+    <t>Riccione - 2022</t>
+  </si>
+  <si>
+    <t>Orange Cup - 2024</t>
+  </si>
+  <si>
+    <t>Alicante - 2024</t>
+  </si>
+  <si>
+    <t>German Cup - 2022</t>
+  </si>
+  <si>
+    <t>Torrevieja - 2021</t>
+  </si>
+  <si>
+    <t>LWC - 2018</t>
+  </si>
+  <si>
+    <t>Riccione - 2023</t>
+  </si>
+  <si>
+    <t>Nina HOLT</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Lucrezia FABRETTI</t>
+  </si>
+  <si>
+    <t>Milano - 2022</t>
+  </si>
+  <si>
+    <t>Madison KIDD</t>
+  </si>
+  <si>
+    <t>Magalie ROUSSAU</t>
+  </si>
+  <si>
+    <t>Saint Malo - 2022</t>
+  </si>
+  <si>
+    <t>Ying LU</t>
+  </si>
+  <si>
+    <t>Kaohsiung - 2009</t>
+  </si>
+  <si>
+    <t>CHN</t>
   </si>
 </sst>
 </file>
@@ -802,15 +862,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,6 +872,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1921,7 +1981,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,126 +1995,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="48" t="s">
+      <c r="D3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="50" t="s">
+      <c r="G3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="50" t="s">
+      <c r="J3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>68</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2896,7 +2956,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,55 +2970,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="B2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="B3" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -4345,38 +4477,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -4541,38 +4673,38 @@
       <c r="N11" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
       <c r="G14"/>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="L14" s="46" t="s">
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="L14" s="50" t="s">
         <v>50</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
       <c r="G15"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="L15" s="50"/>
       <c r="M15"/>
       <c r="N15"/>
     </row>
@@ -5106,38 +5238,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -5302,35 +5434,35 @@
       <c r="N11" s="25"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="H14" s="46" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="H14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="L14" s="46" t="s">
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="L14" s="50" t="s">
         <v>50</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="L15" s="50"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -5900,38 +6032,38 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -6096,35 +6228,35 @@
       <c r="N11" s="25"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="H14" s="46" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="H14" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="L14" s="46" t="s">
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="L14" s="50" t="s">
         <v>50</v>
       </c>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="L15" s="46"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="L15" s="50"/>
       <c r="M15"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDED9BD-37B3-4A88-A431-88A17C6975A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C8859-DCA2-4F31-9B1F-7C80859B3F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="106">
   <si>
     <t>50m Retten</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>CHN</t>
+  </si>
+  <si>
+    <t>Johanna Gnad</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1983,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4253,7 +4256,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5013,8 +5016,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5518,7 +5521,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>43</v>
@@ -5527,7 +5530,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="M17"/>
     </row>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728C8859-DCA2-4F31-9B1F-7C80859B3F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1AF045-2254-45D0-A00A-FFDFD18A99EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="111">
   <si>
     <t>50m Retten</t>
   </si>
@@ -344,9 +344,6 @@
     <t>Dziacko, Malina</t>
   </si>
   <si>
-    <t>Groß, Ben</t>
-  </si>
-  <si>
     <t>Sondernominierung</t>
   </si>
   <si>
@@ -498,6 +495,24 @@
   </si>
   <si>
     <t>Johanna Gnad</t>
+  </si>
+  <si>
+    <t>Jan-Philipp Gnad</t>
+  </si>
+  <si>
+    <t>Oliver Rupp</t>
+  </si>
+  <si>
+    <t>Daniel Bittighofer</t>
+  </si>
+  <si>
+    <t>Emma Uhl</t>
+  </si>
+  <si>
+    <t>Malina Dziacko</t>
+  </si>
+  <si>
+    <t>Ben Groß</t>
   </si>
 </sst>
 </file>
@@ -1999,125 +2014,125 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>64</v>
-      </c>
       <c r="G1" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="46" t="s">
-        <v>67</v>
-      </c>
       <c r="I1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="K1" s="46" t="s">
+      <c r="L1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="M1" s="46" t="s">
         <v>72</v>
-      </c>
-      <c r="M1" s="46" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="D2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="F2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="J2" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="K2" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="L2" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="47" t="s">
         <v>92</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="47" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2974,125 +2989,125 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C1" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H1" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="I1" s="46" t="s">
-        <v>75</v>
-      </c>
       <c r="J1" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K1" s="46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L1" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M1" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F2" s="47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4255,8 +4270,8 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4767,7 +4782,7 @@
       </c>
       <c r="G17"/>
       <c r="H17" s="36" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>43</v>
@@ -4776,7 +4791,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -4802,7 +4817,7 @@
       </c>
       <c r="G18"/>
       <c r="H18" s="37" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="I18" s="37" t="s">
         <v>43</v>
@@ -4835,7 +4850,7 @@
       </c>
       <c r="G19"/>
       <c r="H19" s="36" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>43</v>
@@ -4868,7 +4883,7 @@
       </c>
       <c r="G20"/>
       <c r="H20" s="37" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="I20" s="37" t="s">
         <v>48</v>
@@ -5016,8 +5031,8 @@
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5521,7 +5536,7 @@
         <v>37</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>43</v>
@@ -5530,7 +5545,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M17"/>
     </row>
@@ -5554,7 +5569,7 @@
         <v>37</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="I18" s="37" t="s">
         <v>43</v>
@@ -5585,7 +5600,7 @@
         <v>37</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="I19" s="36" t="s">
         <v>43</v>
@@ -5616,7 +5631,7 @@
         <v>37</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="I20" s="37" t="s">
         <v>48</v>
@@ -5645,7 +5660,7 @@
         <v>38</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I21" s="36" t="s">
         <v>43</v>
@@ -5676,7 +5691,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="I22" s="42" t="s">
         <v>43</v>
@@ -5707,10 +5722,10 @@
         <v>38</v>
       </c>
       <c r="H23" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="43" t="s">
         <v>54</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>55</v>
       </c>
       <c r="J23" s="43" t="s">
         <v>37</v>

--- a/web2/data/records_kriterien.xlsx
+++ b/web2/data/records_kriterien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpgna\Documents\GitHub\Lifesaving_Baden\web2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1AF045-2254-45D0-A00A-FFDFD18A99EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C79C80-5BD9-4781-8660-5AA7ABC477E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{E1AB626B-3773-4829-92A5-28DD4DB7C8F8}"/>
   </bookViews>
   <sheets>
     <sheet name="WR-Youth" sheetId="2" r:id="rId1"/>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="107">
   <si>
     <t>50m Retten</t>
   </si>
@@ -308,24 +308,15 @@
     <t>DMM - 2025</t>
   </si>
   <si>
-    <t>Gnad, Johanna</t>
-  </si>
-  <si>
     <t>Ocean</t>
   </si>
   <si>
-    <t>Gnad, Jan-Philipp</t>
-  </si>
-  <si>
     <t>Kriterium</t>
   </si>
   <si>
     <t>Rupp, Oliver</t>
   </si>
   <si>
-    <t>Bittighofer, Daniel</t>
-  </si>
-  <si>
     <t>Entfernen</t>
   </si>
   <si>
@@ -338,12 +329,6 @@
     <t>Nachname, Name</t>
   </si>
   <si>
-    <t>Uhl, Emma</t>
-  </si>
-  <si>
-    <t>Dziacko, Malina</t>
-  </si>
-  <si>
     <t>Sondernominierung</t>
   </si>
   <si>
@@ -513,6 +498,9 @@
   </si>
   <si>
     <t>Ben Groß</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma Maier </t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1986,7 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2014,125 +2002,125 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="D1" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="45" t="s">
+      <c r="H1" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="K1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="L1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>71</v>
-      </c>
       <c r="M1" s="46" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="I2" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="47" t="s">
+      <c r="J2" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="K2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="L2" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="47" t="s">
         <v>87</v>
-      </c>
-      <c r="H2" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" s="47" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="47" t="s">
+      <c r="G3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="47" t="s">
         <v>59</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2974,7 +2962,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,125 +2977,125 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="45" t="s">
-        <v>101</v>
-      </c>
       <c r="H1" s="46" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I1" s="46" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J1" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="L1" s="46" t="s">
-        <v>82</v>
-      </c>
       <c r="M1" s="46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="47" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="47" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="47" t="s">
-        <v>102</v>
-      </c>
       <c r="H2" s="47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>64</v>
-      </c>
       <c r="L3" s="47" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4270,7 +4258,7 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -4701,12 +4689,12 @@
       <c r="F14" s="48"/>
       <c r="G14"/>
       <c r="H14" s="50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="L14" s="50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -4747,16 +4735,16 @@
       </c>
       <c r="G16"/>
       <c r="H16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
@@ -4782,16 +4770,16 @@
       </c>
       <c r="G17"/>
       <c r="H17" s="36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M17"/>
       <c r="N17"/>
@@ -4817,10 +4805,10 @@
       </c>
       <c r="G18"/>
       <c r="H18" s="37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>38</v>
@@ -4850,10 +4838,10 @@
       </c>
       <c r="G19"/>
       <c r="H19" s="36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>37</v>
@@ -4883,10 +4871,10 @@
       </c>
       <c r="G20"/>
       <c r="H20" s="37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J20" s="37"/>
       <c r="L20" s="36"/>
@@ -5032,7 +5020,7 @@
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5461,12 +5449,12 @@
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="H14" s="50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="L14" s="50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M14"/>
     </row>
@@ -5503,16 +5491,16 @@
         <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M16"/>
     </row>
@@ -5536,16 +5524,16 @@
         <v>37</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M17"/>
     </row>
@@ -5569,10 +5557,10 @@
         <v>37</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>38</v>
@@ -5600,10 +5588,10 @@
         <v>37</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>38</v>
@@ -5631,10 +5619,10 @@
         <v>37</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J20" s="37"/>
       <c r="L20" s="40"/>
@@ -5660,10 +5648,10 @@
         <v>38</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>37</v>
@@ -5691,10 +5679,10 @@
         <v>38</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>37</v>
@@ -5722,10 +5710,10 @@
         <v>38</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J23" s="43" t="s">
         <v>37</v>
@@ -5825,8 +5813,8 @@
   <sheetPr codeName="Tabelle5"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6255,12 +6243,12 @@
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
       <c r="H14" s="50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I14" s="50"/>
       <c r="J14" s="50"/>
       <c r="L14" s="50" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M14"/>
     </row>
@@ -6297,16 +6285,16 @@
         <v>36</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M16"/>
     </row>
@@ -6330,16 +6318,16 @@
         <v>37</v>
       </c>
       <c r="H17" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>38</v>
       </c>
       <c r="L17" s="37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M17"/>
     </row>
@@ -6363,10 +6351,10 @@
         <v>37</v>
       </c>
       <c r="H18" s="37" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="I18" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="37" t="s">
         <v>38</v>
@@ -6394,10 +6382,10 @@
         <v>37</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>38</v>
@@ -6425,10 +6413,10 @@
         <v>37</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J20" s="37"/>
       <c r="L20" s="40"/>
@@ -6454,10 +6442,10 @@
         <v>38</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>37</v>
@@ -6485,10 +6473,10 @@
         <v>38</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="I22" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J22" s="10" t="s">
         <v>37</v>
@@ -6515,9 +6503,15 @@
       <c r="F23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
+      <c r="H23" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="43" t="s">
+        <v>37</v>
+      </c>
       <c r="L23" s="39"/>
       <c r="M23"/>
     </row>
